--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.80099111075764</v>
+        <v>17.80099111075751</v>
       </c>
       <c r="C2">
-        <v>11.63935392711414</v>
+        <v>11.63935392711421</v>
       </c>
       <c r="D2">
-        <v>7.022014248713828</v>
+        <v>7.022014248713811</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.38700848993548</v>
+        <v>63.38700848993491</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.8665611431207</v>
+        <v>12.86656114312061</v>
       </c>
       <c r="J2">
-        <v>15.61001188359875</v>
+        <v>15.61001188359865</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.21444246716832</v>
+        <v>17.21444246716833</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.46640330796124</v>
+        <v>16.46640330796126</v>
       </c>
       <c r="C3">
-        <v>10.78192215298087</v>
+        <v>10.78192215298075</v>
       </c>
       <c r="D3">
-        <v>6.709282545476144</v>
+        <v>6.709282545476132</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.56215040323345</v>
+        <v>59.56215040323344</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.1788164344017</v>
+        <v>12.17881643440167</v>
       </c>
       <c r="J3">
-        <v>14.47250547019832</v>
+        <v>14.47250547019829</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.9600449731668</v>
+        <v>15.96004497316682</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.61142165912221</v>
+        <v>15.6114216591222</v>
       </c>
       <c r="C4">
-        <v>10.23462662951609</v>
+        <v>10.2346266295162</v>
       </c>
       <c r="D4">
-        <v>6.514181148004678</v>
+        <v>6.514181148004624</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.1475662264048</v>
+        <v>57.1475662264049</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>11.75102068099952</v>
       </c>
       <c r="J4">
-        <v>13.7440384308615</v>
+        <v>13.74403843086157</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.15724398518489</v>
+        <v>15.15724398518486</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.25379389593971</v>
+        <v>15.25379389593964</v>
       </c>
       <c r="C5">
-        <v>10.00613712446981</v>
+        <v>10.00613712447019</v>
       </c>
       <c r="D5">
-        <v>6.433871503852327</v>
+        <v>6.433871503852193</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.14704775978176</v>
+        <v>56.14704775978154</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>11.5753514704022</v>
       </c>
       <c r="J5">
-        <v>13.43937242025251</v>
+        <v>13.43937242025262</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.82161056948705</v>
+        <v>14.82161056948714</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.19384587670646</v>
+        <v>15.19384587670652</v>
       </c>
       <c r="C6">
-        <v>9.9678605888506</v>
+        <v>9.967860588850646</v>
       </c>
       <c r="D6">
-        <v>6.420487004739371</v>
+        <v>6.420487004739576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.97991893007395</v>
+        <v>55.9799189300742</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.54610318589343</v>
+        <v>11.54610318589353</v>
       </c>
       <c r="J6">
-        <v>13.3883041048914</v>
+        <v>13.38830410489145</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.76535849703292</v>
+        <v>14.76535849703295</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.60663622786794</v>
+        <v>15.60663622786799</v>
       </c>
       <c r="C7">
-        <v>10.23156753631052</v>
+        <v>10.23156753631067</v>
       </c>
       <c r="D7">
-        <v>6.513101348158183</v>
+        <v>6.513101348158249</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.13413966179605</v>
+        <v>57.13413966179629</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.74865686758396</v>
+        <v>11.74865686758397</v>
       </c>
       <c r="J7">
-        <v>13.7399615428239</v>
+        <v>13.73996154282401</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.15275223405798</v>
+        <v>15.152752234058</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.34802345779126</v>
+        <v>17.34802345779116</v>
       </c>
       <c r="C8">
-        <v>11.34789166378874</v>
+        <v>11.34789166378902</v>
       </c>
       <c r="D8">
-        <v>6.914801925697533</v>
+        <v>6.914801925697592</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.08188530068474</v>
+        <v>62.08188530068512</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.63058593989863</v>
+        <v>12.63058593989867</v>
       </c>
       <c r="J8">
-        <v>15.22386981518863</v>
+        <v>15.22386981518872</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.78850778078849</v>
+        <v>16.7885077807885</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.49532561139561</v>
+        <v>20.49532561139578</v>
       </c>
       <c r="C9">
-        <v>13.38330303769596</v>
+        <v>13.3833030376958</v>
       </c>
       <c r="D9">
-        <v>7.680288010941556</v>
+        <v>7.680288010941583</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.26971919006583</v>
+        <v>71.26971919006623</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.31687848009409</v>
+        <v>14.31687848009411</v>
       </c>
       <c r="J9">
-        <v>17.90867640624889</v>
+        <v>17.90867640624895</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.75245015860337</v>
+        <v>19.75245015860341</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.66806367253032</v>
+        <v>22.66806367253029</v>
       </c>
       <c r="C10">
-        <v>14.80389238099847</v>
+        <v>14.80389238099854</v>
       </c>
       <c r="D10">
-        <v>8.23376610493473</v>
+        <v>8.233766104934594</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.73912236640001</v>
+        <v>77.7391223663995</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.5347784264359</v>
+        <v>15.53477842643585</v>
       </c>
       <c r="J10">
-        <v>19.76525939811395</v>
+        <v>19.76525939811394</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.80563214714635</v>
+        <v>21.80563214714634</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.63264516778909</v>
+        <v>23.63264516778905</v>
       </c>
       <c r="C11">
-        <v>15.43911179434859</v>
+        <v>15.43911179434837</v>
       </c>
       <c r="D11">
-        <v>8.48516879936501</v>
+        <v>8.485168799364978</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.63426603807952</v>
+        <v>80.63426603807926</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.08682757008</v>
+        <v>16.08682757007997</v>
       </c>
       <c r="J11">
-        <v>20.59050967307557</v>
+        <v>20.59050967307549</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.7193079785507</v>
+        <v>22.71930797855065</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.99514477267953</v>
+        <v>23.99514477267966</v>
       </c>
       <c r="C12">
-        <v>15.67860560060587</v>
+        <v>15.6786056006062</v>
       </c>
       <c r="D12">
-        <v>8.580489089299295</v>
+        <v>8.580489089299414</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.72524393906485</v>
+        <v>81.72524393906565</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.29591356504633</v>
+        <v>16.29591356504644</v>
       </c>
       <c r="J12">
-        <v>20.90082781068175</v>
+        <v>20.90082781068193</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.06305375625748</v>
+        <v>23.06305375625758</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.91718519736749</v>
+        <v>23.91718519736746</v>
       </c>
       <c r="C13">
-        <v>15.62706337639398</v>
+        <v>15.62706337639391</v>
       </c>
       <c r="D13">
-        <v>8.55995159154342</v>
+        <v>8.559951591543323</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.49049141753848</v>
+        <v>81.49049141753815</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.25087527230721</v>
+        <v>16.25087527230719</v>
       </c>
       <c r="J13">
-        <v>20.83408181990094</v>
+        <v>20.83408181990096</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.9891094585445</v>
+        <v>22.98910945854451</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.66251945497731</v>
+        <v>23.66251945497721</v>
       </c>
       <c r="C14">
-        <v>15.45883270156869</v>
+        <v>15.45883270156839</v>
       </c>
       <c r="D14">
-        <v>8.493007305866763</v>
+        <v>8.493007305866795</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.72411842199129</v>
+        <v>80.72411842199134</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.10402624810593</v>
+        <v>16.10402624810594</v>
       </c>
       <c r="J14">
-        <v>20.61607975043388</v>
+        <v>20.61607975043377</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.74762874140667</v>
+        <v>22.7476287414066</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.50619071158071</v>
+        <v>23.50619071158081</v>
       </c>
       <c r="C15">
-        <v>15.35566745039434</v>
+        <v>15.35566745039423</v>
       </c>
       <c r="D15">
-        <v>8.452023482714775</v>
+        <v>8.452023482714843</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.25404854814781</v>
+        <v>80.25404854814794</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.01409309626884</v>
+        <v>16.01409309626888</v>
       </c>
       <c r="J15">
-        <v>20.48228197464916</v>
+        <v>20.48228197464921</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.5994451044041</v>
+        <v>22.59944510440413</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.60460032344106</v>
+        <v>22.60460032344101</v>
       </c>
       <c r="C16">
-        <v>14.76220099169436</v>
+        <v>14.76220099169437</v>
       </c>
       <c r="D16">
-        <v>8.2173426316342</v>
+        <v>8.217342631634267</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.54907681702004</v>
+        <v>77.54907681701985</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.49868609576994</v>
+        <v>15.49868609576995</v>
       </c>
       <c r="J16">
-        <v>19.71098670547811</v>
+        <v>19.71098670547806</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.04583622039716</v>
+        <v>22.04583622039715</v>
       </c>
       <c r="C17">
-        <v>14.39565634296349</v>
+        <v>14.39565634296359</v>
       </c>
       <c r="D17">
-        <v>8.073387298765141</v>
+        <v>8.073387298765052</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.8783760049898</v>
+        <v>75.87837600498941</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.18219148791183</v>
+        <v>15.18219148791184</v>
       </c>
       <c r="J17">
-        <v>19.23326157570718</v>
+        <v>19.23326157570727</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.21697914230469</v>
+        <v>21.21697914230475</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.72216322503668</v>
+        <v>21.72216322503662</v>
       </c>
       <c r="C18">
-        <v>14.18375560805165</v>
+        <v>14.18375560805163</v>
       </c>
       <c r="D18">
-        <v>7.990539759183555</v>
+        <v>7.990539759183589</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.91281803889629</v>
+        <v>74.91281803889652</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.99994105478575</v>
+        <v>14.9999410547858</v>
       </c>
       <c r="J18">
-        <v>18.9566271825297</v>
+        <v>18.95662718252969</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.91098846866435</v>
+        <v>20.91098846866433</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.61216229768846</v>
+        <v>21.6121622976884</v>
       </c>
       <c r="C19">
-        <v>14.11181056413499</v>
+        <v>14.11181056413494</v>
       </c>
       <c r="D19">
-        <v>7.9624761150385</v>
+        <v>7.962476115038622</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.5850641185382</v>
+        <v>74.5850641185381</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.9381897381673</v>
+        <v>14.93818973816728</v>
       </c>
       <c r="J19">
-        <v>18.86262787021458</v>
+        <v>18.86262787021449</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.80702987692343</v>
+        <v>20.80702987692339</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.10554990222611</v>
+        <v>22.105549902226</v>
       </c>
       <c r="C20">
-        <v>14.43478325286731</v>
+        <v>14.43478325286768</v>
       </c>
       <c r="D20">
-        <v>8.088715460606975</v>
+        <v>8.088715460607034</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.05669284240531</v>
+        <v>76.05669284240545</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>15.21590271652468</v>
       </c>
       <c r="J20">
-        <v>19.28430474825334</v>
+        <v>19.2843047482534</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.2734466756776</v>
+        <v>21.27344667567764</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.73739016820171</v>
+        <v>23.73739016820175</v>
       </c>
       <c r="C21">
-        <v>15.50826984365162</v>
+        <v>15.50826984365165</v>
       </c>
       <c r="D21">
-        <v>8.512665613034034</v>
+        <v>8.512665613034059</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.94935168385685</v>
+        <v>80.94935168385703</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.14715528443376</v>
+        <v>16.1471552844338</v>
       </c>
       <c r="J21">
-        <v>20.6801662908234</v>
+        <v>20.68016629082339</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.81861228475255</v>
+        <v>22.81861228475257</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,16 +1175,16 @@
         <v>24.78817050290606</v>
       </c>
       <c r="C22">
-        <v>16.20406519258021</v>
+        <v>16.20406519258038</v>
       </c>
       <c r="D22">
-        <v>8.79055336836683</v>
+        <v>8.790553368366899</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.1168318636504</v>
+        <v>84.11683186365066</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>16.75622628200173</v>
       </c>
       <c r="J22">
-        <v>21.58006283918759</v>
+        <v>21.58006283918766</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.81581030130101</v>
+        <v>23.81581030130104</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.22853573538966</v>
+        <v>24.2285357353896</v>
       </c>
       <c r="C23">
-        <v>15.83303039556999</v>
+        <v>15.83303039556987</v>
       </c>
       <c r="D23">
-        <v>8.642095513449412</v>
+        <v>8.642095513449318</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.42842826616629</v>
+        <v>82.42842826616615</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.43097862592321</v>
+        <v>16.43097862592318</v>
       </c>
       <c r="J23">
-        <v>21.10067687710027</v>
+        <v>21.10067687710022</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.07856096961951</v>
+        <v>22.07856096961942</v>
       </c>
       <c r="C24">
-        <v>14.41709765765552</v>
+        <v>14.41709765765551</v>
       </c>
       <c r="D24">
         <v>8.081785877913866</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.97609163832698</v>
+        <v>75.97609163832668</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.20066280669992</v>
+        <v>15.20066280669995</v>
       </c>
       <c r="J24">
-        <v>19.26123435202284</v>
+        <v>19.26123435202275</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.24792428834854</v>
+        <v>21.24792428834857</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.67032609438898</v>
+        <v>19.67032609438904</v>
       </c>
       <c r="C25">
-        <v>12.84735088866853</v>
+        <v>12.8473508886687</v>
       </c>
       <c r="D25">
-        <v>7.475193876661749</v>
+        <v>7.475193876661816</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.83687063879789</v>
+        <v>68.83687063879827</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.86499894884495</v>
+        <v>13.86499894884499</v>
       </c>
       <c r="J25">
-        <v>17.20445615907195</v>
+        <v>17.20445615907206</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.97444614582771</v>
+        <v>18.97444614582774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.80099111075751</v>
+        <v>17.80099111075764</v>
       </c>
       <c r="C2">
-        <v>11.63935392711421</v>
+        <v>11.63935392711414</v>
       </c>
       <c r="D2">
-        <v>7.022014248713811</v>
+        <v>7.022014248713828</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.38700848993491</v>
+        <v>63.38700848993548</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.86656114312061</v>
+        <v>12.8665611431207</v>
       </c>
       <c r="J2">
-        <v>15.61001188359865</v>
+        <v>15.61001188359875</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.21444246716833</v>
+        <v>17.21444246716832</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.46640330796126</v>
+        <v>16.46640330796124</v>
       </c>
       <c r="C3">
-        <v>10.78192215298075</v>
+        <v>10.78192215298087</v>
       </c>
       <c r="D3">
-        <v>6.709282545476132</v>
+        <v>6.709282545476144</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.56215040323344</v>
+        <v>59.56215040323345</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.17881643440167</v>
+        <v>12.1788164344017</v>
       </c>
       <c r="J3">
-        <v>14.47250547019829</v>
+        <v>14.47250547019832</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.96004497316682</v>
+        <v>15.9600449731668</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.6114216591222</v>
+        <v>15.61142165912221</v>
       </c>
       <c r="C4">
-        <v>10.2346266295162</v>
+        <v>10.23462662951609</v>
       </c>
       <c r="D4">
-        <v>6.514181148004624</v>
+        <v>6.514181148004678</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.1475662264049</v>
+        <v>57.1475662264048</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>11.75102068099952</v>
       </c>
       <c r="J4">
-        <v>13.74403843086157</v>
+        <v>13.7440384308615</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.15724398518486</v>
+        <v>15.15724398518489</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.25379389593964</v>
+        <v>15.25379389593971</v>
       </c>
       <c r="C5">
-        <v>10.00613712447019</v>
+        <v>10.00613712446981</v>
       </c>
       <c r="D5">
-        <v>6.433871503852193</v>
+        <v>6.433871503852327</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.14704775978154</v>
+        <v>56.14704775978176</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>11.5753514704022</v>
       </c>
       <c r="J5">
-        <v>13.43937242025262</v>
+        <v>13.43937242025251</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.82161056948714</v>
+        <v>14.82161056948705</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.19384587670652</v>
+        <v>15.19384587670646</v>
       </c>
       <c r="C6">
-        <v>9.967860588850646</v>
+        <v>9.9678605888506</v>
       </c>
       <c r="D6">
-        <v>6.420487004739576</v>
+        <v>6.420487004739371</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.9799189300742</v>
+        <v>55.97991893007395</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.54610318589353</v>
+        <v>11.54610318589343</v>
       </c>
       <c r="J6">
-        <v>13.38830410489145</v>
+        <v>13.3883041048914</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.76535849703295</v>
+        <v>14.76535849703292</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.60663622786799</v>
+        <v>15.60663622786794</v>
       </c>
       <c r="C7">
-        <v>10.23156753631067</v>
+        <v>10.23156753631052</v>
       </c>
       <c r="D7">
-        <v>6.513101348158249</v>
+        <v>6.513101348158183</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.13413966179629</v>
+        <v>57.13413966179605</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.74865686758397</v>
+        <v>11.74865686758396</v>
       </c>
       <c r="J7">
-        <v>13.73996154282401</v>
+        <v>13.7399615428239</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.152752234058</v>
+        <v>15.15275223405798</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.34802345779116</v>
+        <v>17.34802345779126</v>
       </c>
       <c r="C8">
-        <v>11.34789166378902</v>
+        <v>11.34789166378874</v>
       </c>
       <c r="D8">
-        <v>6.914801925697592</v>
+        <v>6.914801925697533</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.08188530068512</v>
+        <v>62.08188530068474</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.63058593989867</v>
+        <v>12.63058593989863</v>
       </c>
       <c r="J8">
-        <v>15.22386981518872</v>
+        <v>15.22386981518863</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.7885077807885</v>
+        <v>16.78850778078849</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.49532561139578</v>
+        <v>20.49532561139561</v>
       </c>
       <c r="C9">
-        <v>13.3833030376958</v>
+        <v>13.38330303769596</v>
       </c>
       <c r="D9">
-        <v>7.680288010941583</v>
+        <v>7.680288010941556</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.26971919006623</v>
+        <v>71.26971919006583</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.31687848009411</v>
+        <v>14.31687848009409</v>
       </c>
       <c r="J9">
-        <v>17.90867640624895</v>
+        <v>17.90867640624889</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.75245015860341</v>
+        <v>19.75245015860337</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.66806367253029</v>
+        <v>22.66806367253032</v>
       </c>
       <c r="C10">
-        <v>14.80389238099854</v>
+        <v>14.80389238099847</v>
       </c>
       <c r="D10">
-        <v>8.233766104934594</v>
+        <v>8.23376610493473</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.7391223663995</v>
+        <v>77.73912236640001</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.53477842643585</v>
+        <v>15.5347784264359</v>
       </c>
       <c r="J10">
-        <v>19.76525939811394</v>
+        <v>19.76525939811395</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.80563214714634</v>
+        <v>21.80563214714635</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.63264516778905</v>
+        <v>23.63264516778909</v>
       </c>
       <c r="C11">
-        <v>15.43911179434837</v>
+        <v>15.43911179434859</v>
       </c>
       <c r="D11">
-        <v>8.485168799364978</v>
+        <v>8.48516879936501</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.63426603807926</v>
+        <v>80.63426603807952</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.08682757007997</v>
+        <v>16.08682757008</v>
       </c>
       <c r="J11">
-        <v>20.59050967307549</v>
+        <v>20.59050967307557</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.71930797855065</v>
+        <v>22.7193079785507</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.99514477267966</v>
+        <v>23.99514477267953</v>
       </c>
       <c r="C12">
-        <v>15.6786056006062</v>
+        <v>15.67860560060587</v>
       </c>
       <c r="D12">
-        <v>8.580489089299414</v>
+        <v>8.580489089299295</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.72524393906565</v>
+        <v>81.72524393906485</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.29591356504644</v>
+        <v>16.29591356504633</v>
       </c>
       <c r="J12">
-        <v>20.90082781068193</v>
+        <v>20.90082781068175</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.06305375625758</v>
+        <v>23.06305375625748</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.91718519736746</v>
+        <v>23.91718519736749</v>
       </c>
       <c r="C13">
-        <v>15.62706337639391</v>
+        <v>15.62706337639398</v>
       </c>
       <c r="D13">
-        <v>8.559951591543323</v>
+        <v>8.55995159154342</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.49049141753815</v>
+        <v>81.49049141753848</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.25087527230719</v>
+        <v>16.25087527230721</v>
       </c>
       <c r="J13">
-        <v>20.83408181990096</v>
+        <v>20.83408181990094</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.98910945854451</v>
+        <v>22.9891094585445</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.66251945497721</v>
+        <v>23.66251945497731</v>
       </c>
       <c r="C14">
-        <v>15.45883270156839</v>
+        <v>15.45883270156869</v>
       </c>
       <c r="D14">
-        <v>8.493007305866795</v>
+        <v>8.493007305866763</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.72411842199134</v>
+        <v>80.72411842199129</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.10402624810594</v>
+        <v>16.10402624810593</v>
       </c>
       <c r="J14">
-        <v>20.61607975043377</v>
+        <v>20.61607975043388</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.7476287414066</v>
+        <v>22.74762874140667</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.50619071158081</v>
+        <v>23.50619071158071</v>
       </c>
       <c r="C15">
-        <v>15.35566745039423</v>
+        <v>15.35566745039434</v>
       </c>
       <c r="D15">
-        <v>8.452023482714843</v>
+        <v>8.452023482714775</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.25404854814794</v>
+        <v>80.25404854814781</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.01409309626888</v>
+        <v>16.01409309626884</v>
       </c>
       <c r="J15">
-        <v>20.48228197464921</v>
+        <v>20.48228197464916</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.59944510440413</v>
+        <v>22.5994451044041</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.60460032344101</v>
+        <v>22.60460032344106</v>
       </c>
       <c r="C16">
-        <v>14.76220099169437</v>
+        <v>14.76220099169436</v>
       </c>
       <c r="D16">
-        <v>8.217342631634267</v>
+        <v>8.2173426316342</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.54907681701985</v>
+        <v>77.54907681702004</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.49868609576995</v>
+        <v>15.49868609576994</v>
       </c>
       <c r="J16">
-        <v>19.71098670547806</v>
+        <v>19.71098670547811</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.04583622039715</v>
+        <v>22.04583622039716</v>
       </c>
       <c r="C17">
-        <v>14.39565634296359</v>
+        <v>14.39565634296349</v>
       </c>
       <c r="D17">
-        <v>8.073387298765052</v>
+        <v>8.073387298765141</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.87837600498941</v>
+        <v>75.8783760049898</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.18219148791184</v>
+        <v>15.18219148791183</v>
       </c>
       <c r="J17">
-        <v>19.23326157570727</v>
+        <v>19.23326157570718</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.21697914230475</v>
+        <v>21.21697914230469</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.72216322503662</v>
+        <v>21.72216322503668</v>
       </c>
       <c r="C18">
-        <v>14.18375560805163</v>
+        <v>14.18375560805165</v>
       </c>
       <c r="D18">
-        <v>7.990539759183589</v>
+        <v>7.990539759183555</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.91281803889652</v>
+        <v>74.91281803889629</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.9999410547858</v>
+        <v>14.99994105478575</v>
       </c>
       <c r="J18">
-        <v>18.95662718252969</v>
+        <v>18.9566271825297</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.91098846866433</v>
+        <v>20.91098846866435</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.6121622976884</v>
+        <v>21.61216229768846</v>
       </c>
       <c r="C19">
-        <v>14.11181056413494</v>
+        <v>14.11181056413499</v>
       </c>
       <c r="D19">
-        <v>7.962476115038622</v>
+        <v>7.9624761150385</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.5850641185381</v>
+        <v>74.5850641185382</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.93818973816728</v>
+        <v>14.9381897381673</v>
       </c>
       <c r="J19">
-        <v>18.86262787021449</v>
+        <v>18.86262787021458</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.80702987692339</v>
+        <v>20.80702987692343</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.105549902226</v>
+        <v>22.10554990222611</v>
       </c>
       <c r="C20">
-        <v>14.43478325286768</v>
+        <v>14.43478325286731</v>
       </c>
       <c r="D20">
-        <v>8.088715460607034</v>
+        <v>8.088715460606975</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.05669284240545</v>
+        <v>76.05669284240531</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>15.21590271652468</v>
       </c>
       <c r="J20">
-        <v>19.2843047482534</v>
+        <v>19.28430474825334</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.27344667567764</v>
+        <v>21.2734466756776</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.73739016820175</v>
+        <v>23.73739016820171</v>
       </c>
       <c r="C21">
-        <v>15.50826984365165</v>
+        <v>15.50826984365162</v>
       </c>
       <c r="D21">
-        <v>8.512665613034059</v>
+        <v>8.512665613034034</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.94935168385703</v>
+        <v>80.94935168385685</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.1471552844338</v>
+        <v>16.14715528443376</v>
       </c>
       <c r="J21">
-        <v>20.68016629082339</v>
+        <v>20.6801662908234</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.81861228475257</v>
+        <v>22.81861228475255</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,16 +1175,16 @@
         <v>24.78817050290606</v>
       </c>
       <c r="C22">
-        <v>16.20406519258038</v>
+        <v>16.20406519258021</v>
       </c>
       <c r="D22">
-        <v>8.790553368366899</v>
+        <v>8.79055336836683</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.11683186365066</v>
+        <v>84.1168318636504</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>16.75622628200173</v>
       </c>
       <c r="J22">
-        <v>21.58006283918766</v>
+        <v>21.58006283918759</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.81581030130104</v>
+        <v>23.81581030130101</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.2285357353896</v>
+        <v>24.22853573538966</v>
       </c>
       <c r="C23">
-        <v>15.83303039556987</v>
+        <v>15.83303039556999</v>
       </c>
       <c r="D23">
-        <v>8.642095513449318</v>
+        <v>8.642095513449412</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.42842826616615</v>
+        <v>82.42842826616629</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.43097862592318</v>
+        <v>16.43097862592321</v>
       </c>
       <c r="J23">
-        <v>21.10067687710022</v>
+        <v>21.10067687710027</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.07856096961942</v>
+        <v>22.07856096961951</v>
       </c>
       <c r="C24">
-        <v>14.41709765765551</v>
+        <v>14.41709765765552</v>
       </c>
       <c r="D24">
         <v>8.081785877913866</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.97609163832668</v>
+        <v>75.97609163832698</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.20066280669995</v>
+        <v>15.20066280669992</v>
       </c>
       <c r="J24">
-        <v>19.26123435202275</v>
+        <v>19.26123435202284</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.24792428834857</v>
+        <v>21.24792428834854</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.67032609438904</v>
+        <v>19.67032609438898</v>
       </c>
       <c r="C25">
-        <v>12.8473508886687</v>
+        <v>12.84735088866853</v>
       </c>
       <c r="D25">
-        <v>7.475193876661816</v>
+        <v>7.475193876661749</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.83687063879827</v>
+        <v>68.83687063879789</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.86499894884499</v>
+        <v>13.86499894884495</v>
       </c>
       <c r="J25">
-        <v>17.20445615907206</v>
+        <v>17.20445615907195</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.97444614582774</v>
+        <v>18.97444614582771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.80099111075764</v>
+        <v>17.67640446025313</v>
       </c>
       <c r="C2">
-        <v>11.63935392711414</v>
+        <v>11.4730510063232</v>
       </c>
       <c r="D2">
-        <v>7.022014248713828</v>
+        <v>7.134530800790234</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.38700848993548</v>
+        <v>63.48872868624716</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.073207042824474</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.8665611431207</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.61001188359875</v>
+        <v>12.82497797108904</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.46088888890216</v>
       </c>
       <c r="L2">
-        <v>17.21444246716832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.14960076874386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.46640330796124</v>
+        <v>16.34931817171992</v>
       </c>
       <c r="C3">
-        <v>10.78192215298087</v>
+        <v>10.61905363025654</v>
       </c>
       <c r="D3">
-        <v>6.709282545476144</v>
+        <v>6.827898100014459</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.56215040323345</v>
+        <v>59.69991223825333</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.087005434846814</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.1788164344017</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.47250547019832</v>
+        <v>12.13616330562699</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.32731989454989</v>
       </c>
       <c r="L3">
-        <v>15.9600449731668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.89840665760137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.61142165912221</v>
+        <v>15.49927640144851</v>
       </c>
       <c r="C4">
-        <v>10.23462662951609</v>
+        <v>10.07380792999811</v>
       </c>
       <c r="D4">
-        <v>6.514181148004678</v>
+        <v>6.636790789968984</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.1475662264048</v>
+        <v>57.3094697790207</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.095591335488189</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.75102068099952</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.7440384308615</v>
+        <v>11.70748402850034</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.60124151776215</v>
       </c>
       <c r="L4">
-        <v>15.15724398518489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.09753882990601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.25379389593971</v>
+        <v>15.14375606458511</v>
       </c>
       <c r="C5">
-        <v>10.00613712446981</v>
+        <v>9.846139008211388</v>
       </c>
       <c r="D5">
-        <v>6.433871503852327</v>
+        <v>6.558171511446638</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.14704775978176</v>
+        <v>56.31932368295188</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.099124143747318</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.5753514704022</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.43937242025251</v>
+        <v>11.53139908902233</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.2975428380983</v>
       </c>
       <c r="L5">
-        <v>14.82161056948705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.76268716596288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.19384587670646</v>
+        <v>15.08416400946617</v>
       </c>
       <c r="C6">
-        <v>9.9678605888506</v>
+        <v>9.807997821063687</v>
       </c>
       <c r="D6">
-        <v>6.420487004739371</v>
+        <v>6.545071473464313</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.97991893007395</v>
+        <v>56.15395025581941</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.099712963854935</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.54610318589343</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.3883041048914</v>
+        <v>11.50207844744049</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.24663479805962</v>
       </c>
       <c r="L6">
-        <v>14.76535849703292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.70656459672727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.60663622786794</v>
+        <v>15.49451899493566</v>
       </c>
       <c r="C7">
-        <v>10.23156753631052</v>
+        <v>10.07075996382038</v>
       </c>
       <c r="D7">
-        <v>6.513101348158183</v>
+        <v>6.635733533389719</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.13413966179605</v>
+        <v>57.29618089949408</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.095638835837005</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.74865686758396</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.7399615428239</v>
+        <v>11.70511483220022</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.59717769914497</v>
       </c>
       <c r="L7">
-        <v>15.15275223405798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.09305764344217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.34802345779126</v>
+        <v>17.22595999855403</v>
       </c>
       <c r="C8">
-        <v>11.34789166378874</v>
+        <v>11.18278553403939</v>
       </c>
       <c r="D8">
-        <v>6.914801925697533</v>
+        <v>7.029369937599574</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.08188530068474</v>
+        <v>62.19563267201656</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.077944590506043</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.63058593989863</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.22386981518863</v>
+        <v>12.58868166888126</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.07611146685479</v>
       </c>
       <c r="L8">
-        <v>16.78850778078849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.72477932276846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.49532561139561</v>
+        <v>20.35597815693243</v>
       </c>
       <c r="C9">
-        <v>13.38330303769596</v>
+        <v>13.20923682308822</v>
       </c>
       <c r="D9">
-        <v>7.680288010941556</v>
+        <v>7.78097876600553</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.26971919006583</v>
+        <v>71.30337544996189</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.043867862892558</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.31687848009409</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.90867640624889</v>
+        <v>14.27631999509711</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.75082599452625</v>
       </c>
       <c r="L9">
-        <v>19.75245015860337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.68038848195254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.66806367253032</v>
+        <v>22.51678359579423</v>
       </c>
       <c r="C10">
-        <v>14.80389238099847</v>
+        <v>14.62273644443114</v>
       </c>
       <c r="D10">
-        <v>8.23376610493473</v>
+        <v>8.325328109798273</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.73912236640001</v>
+        <v>77.72084600440567</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.018751961142462</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.5347784264359</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19.76525939811395</v>
+        <v>15.49393860960904</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.59954908337776</v>
       </c>
       <c r="L10">
-        <v>21.80563214714635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.72689002624344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.63264516778909</v>
+        <v>23.47596068866528</v>
       </c>
       <c r="C11">
-        <v>15.43911179434859</v>
+        <v>15.25454750235081</v>
       </c>
       <c r="D11">
-        <v>8.48516879936501</v>
+        <v>8.572767168777801</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.63426603807952</v>
+        <v>80.59336710679359</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.007181691936617</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.08682757008</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.59050967307557</v>
+        <v>16.04553661036087</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.42104177160698</v>
       </c>
       <c r="L11">
-        <v>22.7193079785507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>22.63730663405353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.99514477267953</v>
+        <v>23.83640289148063</v>
       </c>
       <c r="C12">
-        <v>15.67860560060587</v>
+        <v>15.49271521249273</v>
       </c>
       <c r="D12">
-        <v>8.580489089299295</v>
+        <v>8.666608751117991</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.72524393906485</v>
+        <v>81.67587352244793</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.002766362640511</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.29591356504633</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>20.90082781068175</v>
+        <v>16.25439931951049</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.72990060923373</v>
       </c>
       <c r="L12">
-        <v>23.06305375625748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>22.97977496030197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.91718519736749</v>
+        <v>23.75888715851123</v>
       </c>
       <c r="C13">
-        <v>15.62706337639398</v>
+        <v>15.44146034007346</v>
       </c>
       <c r="D13">
-        <v>8.55995159154342</v>
+        <v>8.64638882443014</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.49049141753848</v>
+        <v>81.44294212637628</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.003719027810138</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.25087527230721</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>20.83408181990094</v>
+        <v>16.20941156692242</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.663470720196</v>
       </c>
       <c r="L13">
-        <v>22.9891094585445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>22.90610793108981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.66251945497731</v>
+        <v>23.5056660226823</v>
       </c>
       <c r="C14">
-        <v>15.45883270156869</v>
+        <v>15.27416008374382</v>
       </c>
       <c r="D14">
-        <v>8.493007305866763</v>
+        <v>8.580483608801496</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.72411842199129</v>
+        <v>80.68252093982677</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.006819204144285</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.10402624810593</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>20.61607975043388</v>
+        <v>16.06271801170399</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.4464925905353</v>
       </c>
       <c r="L14">
-        <v>22.74762874140667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.66552324602694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.50619071158071</v>
+        <v>23.35022025171196</v>
       </c>
       <c r="C15">
-        <v>15.35566745039434</v>
+        <v>15.1715598062125</v>
       </c>
       <c r="D15">
-        <v>8.452023482714775</v>
+        <v>8.540138971306954</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.25404854814781</v>
+        <v>80.21610752024088</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.00871330211819</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.01409309626884</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>20.48228197464916</v>
+        <v>15.97287304459484</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.3133169123599</v>
       </c>
       <c r="L15">
-        <v>22.5994451044041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>22.51788241830307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.60460032344106</v>
+        <v>22.45367275804527</v>
       </c>
       <c r="C16">
-        <v>14.76220099169436</v>
+        <v>14.58126340232429</v>
       </c>
       <c r="D16">
-        <v>8.2173426316342</v>
+        <v>8.309167080788995</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.54907681702004</v>
+        <v>77.53229506072117</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.019504127874399</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.49868609576994</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>19.71098670547811</v>
+        <v>15.45786879530588</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.54551749125168</v>
       </c>
       <c r="L16">
-        <v>21.74556742522255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.66703295605839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.04583622039716</v>
+        <v>21.89799907893072</v>
       </c>
       <c r="C17">
-        <v>14.39565634296349</v>
+        <v>14.21661098008128</v>
       </c>
       <c r="D17">
-        <v>8.073387298765141</v>
+        <v>8.167532384322108</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.8783760049898</v>
+        <v>75.87479906407185</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.026078289748945</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.18219148791183</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.23326157570718</v>
+        <v>15.14153486585388</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.06988398622999</v>
       </c>
       <c r="L17">
-        <v>21.21697914230469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.14023874826792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.72216322503668</v>
+        <v>21.57610684215848</v>
       </c>
       <c r="C18">
-        <v>14.18375560805165</v>
+        <v>14.00578205276135</v>
       </c>
       <c r="D18">
-        <v>7.990539759183555</v>
+        <v>8.086037777640334</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.91281803889629</v>
+        <v>74.91693377422965</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.029846847463137</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.99994105478575</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>18.9566271825297</v>
+        <v>14.95934689371597</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.79443626859927</v>
       </c>
       <c r="L18">
-        <v>20.91098846866435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20.83526010940102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.61216229768846</v>
+        <v>21.46670979487847</v>
       </c>
       <c r="C19">
-        <v>14.11181056413499</v>
+        <v>13.93419729242184</v>
       </c>
       <c r="D19">
-        <v>7.9624761150385</v>
+        <v>8.058435462869785</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.5850641185382</v>
+        <v>74.59180258775281</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.031120989355672</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.9381897381673</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>18.86262787021458</v>
+        <v>14.89761172960421</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.70083619486339</v>
       </c>
       <c r="L19">
-        <v>20.80702987692343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.73164106253189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.10554990222611</v>
+        <v>21.95738354030012</v>
       </c>
       <c r="C20">
-        <v>14.43478325286731</v>
+        <v>14.2555382287654</v>
       </c>
       <c r="D20">
-        <v>8.088715460606975</v>
+        <v>8.182611662206742</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.05669284240531</v>
+        <v>76.0517004514805</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.025379862928454</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.21590271652468</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>19.28430474825334</v>
+        <v>15.17523212712927</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.12070626036216</v>
       </c>
       <c r="L20">
-        <v>21.2734466756776</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>21.19651742898935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.73739016820171</v>
+        <v>23.58011284394005</v>
       </c>
       <c r="C21">
-        <v>15.50826984365162</v>
+        <v>15.3233249883747</v>
       </c>
       <c r="D21">
-        <v>8.512665613034034</v>
+        <v>8.599836158815833</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.94935168385685</v>
+        <v>80.90600386058827</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.005909644964349</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.14715528443376</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>20.6801662908234</v>
+        <v>16.10580286496303</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.51027945968174</v>
       </c>
       <c r="L21">
-        <v>22.81861228475255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>22.73624488681078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.78817050290606</v>
+        <v>24.62486619076797</v>
       </c>
       <c r="C22">
-        <v>16.20406519258021</v>
+        <v>16.01518206361228</v>
       </c>
       <c r="D22">
-        <v>8.79055336836683</v>
+        <v>8.873454540938825</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.1168318636504</v>
+        <v>84.04894168164758</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.992978937462168</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.75622628200173</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>21.58006283918759</v>
+        <v>16.71411802755647</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.40584687815777</v>
       </c>
       <c r="L22">
-        <v>23.81581030130101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>23.72962846561551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.22853573538966</v>
+        <v>24.06846034533871</v>
       </c>
       <c r="C23">
-        <v>15.83303039556999</v>
+        <v>15.64627254454688</v>
       </c>
       <c r="D23">
-        <v>8.642095513449412</v>
+        <v>8.727265798006236</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.42842826616629</v>
+        <v>82.37360736230687</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.999904166202073</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.43097862592321</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>21.10067687710027</v>
+        <v>16.38930474656889</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.92879578586751</v>
       </c>
       <c r="L23">
-        <v>23.28448367472515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23.20036630474483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.07856096961951</v>
+        <v>21.93054343468843</v>
       </c>
       <c r="C24">
-        <v>14.41709765765552</v>
+        <v>14.23794294978941</v>
       </c>
       <c r="D24">
-        <v>8.081785877913866</v>
+        <v>8.175794541149308</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.97609163832698</v>
+        <v>75.97173885407419</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.025695655060815</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.20066280669992</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>19.26123435202284</v>
+        <v>15.159998624714</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.09773578089959</v>
       </c>
       <c r="L24">
-        <v>21.24792428834854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.17108048158301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.67032609438898</v>
+        <v>19.53547604941252</v>
       </c>
       <c r="C25">
-        <v>12.84735088866853</v>
+        <v>12.6757790902009</v>
       </c>
       <c r="D25">
-        <v>7.475193876661749</v>
+        <v>7.579440226816279</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.83687063879789</v>
+        <v>68.89082606196702</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.053062994520038</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.86499894884495</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>17.20445615907195</v>
+        <v>13.82428730056586</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.04939160781156</v>
       </c>
       <c r="L25">
-        <v>18.97444614582771</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.90471000806873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.67640446025313</v>
+        <v>21.39254704631418</v>
       </c>
       <c r="C2">
-        <v>11.4730510063232</v>
+        <v>13.71075267572767</v>
       </c>
       <c r="D2">
-        <v>7.134530800790234</v>
+        <v>4.913026376703088</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.48872868624716</v>
+        <v>37.11474553586874</v>
       </c>
       <c r="G2">
-        <v>2.073207042824474</v>
+        <v>2.087553722123832</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.82497797108904</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.46088888890216</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.667254764504412</v>
       </c>
       <c r="M2">
-        <v>17.14960076874386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.62796003363083</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>29.44269427042688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.34931817171992</v>
+        <v>19.87025296441952</v>
       </c>
       <c r="C3">
-        <v>10.61905363025654</v>
+        <v>13.00702161224711</v>
       </c>
       <c r="D3">
-        <v>6.827898100014459</v>
+        <v>4.977420528443592</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.69991223825333</v>
+        <v>35.47640747575826</v>
       </c>
       <c r="G3">
-        <v>2.087005434846814</v>
+        <v>2.098295953815208</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.13616330562699</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.32731989454989</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.607514844707431</v>
       </c>
       <c r="M3">
-        <v>15.89840665760137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.09137615693954</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.32897017924702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.49927640144851</v>
+        <v>18.88808038013608</v>
       </c>
       <c r="C4">
-        <v>10.07380792999811</v>
+        <v>12.55766891113315</v>
       </c>
       <c r="D4">
-        <v>6.636790789968984</v>
+        <v>5.018379504311643</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.3094697790207</v>
+        <v>34.47077206918489</v>
       </c>
       <c r="G4">
-        <v>2.095591335488189</v>
+        <v>2.105038930999938</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.70748402850034</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.60124151776215</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.574232975991789</v>
       </c>
       <c r="M4">
-        <v>15.09753882990601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.75963673952824</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>27.65300055738152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.14375606458511</v>
+        <v>18.47575758949873</v>
       </c>
       <c r="C5">
-        <v>9.846139008211388</v>
+        <v>12.37023612181732</v>
       </c>
       <c r="D5">
-        <v>6.558171511446638</v>
+        <v>5.035416676607952</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.31932368295188</v>
+        <v>34.06140795928779</v>
       </c>
       <c r="G5">
-        <v>2.099124143747318</v>
+        <v>2.107826373682179</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.53139908902233</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.2975428380983</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.56150368162649</v>
       </c>
       <c r="M5">
-        <v>14.76268716596288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.62403769597425</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>27.37970162222723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.08416400946617</v>
+        <v>18.40655840291528</v>
       </c>
       <c r="C6">
-        <v>9.807997821063687</v>
+        <v>12.33885337420958</v>
       </c>
       <c r="D6">
-        <v>6.545071473464313</v>
+        <v>5.038266299268498</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.15395025581941</v>
+        <v>33.99347188461606</v>
       </c>
       <c r="G6">
-        <v>2.099712963854935</v>
+        <v>2.108291692152958</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.50207844744049</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.24663479805962</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.559439701078534</v>
       </c>
       <c r="M6">
-        <v>14.70656459672727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.60150180802628</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>27.33445729471973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.49451899493566</v>
+        <v>18.88256873215744</v>
       </c>
       <c r="C7">
-        <v>10.07075996382038</v>
+        <v>12.5551585633835</v>
       </c>
       <c r="D7">
-        <v>6.635733533389719</v>
+        <v>5.01860788566339</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.29618089949408</v>
+        <v>34.46524892863514</v>
       </c>
       <c r="G7">
-        <v>2.095638835837005</v>
+        <v>2.105076359682735</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.70511483220022</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.59717769914497</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.574057958225306</v>
       </c>
       <c r="M7">
-        <v>15.09305764344217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.75780944462527</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>27.64930572022984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.22595999855403</v>
+        <v>20.87742304070316</v>
       </c>
       <c r="C8">
-        <v>11.18278553403939</v>
+        <v>13.47169392403119</v>
       </c>
       <c r="D8">
-        <v>7.029369937599574</v>
+        <v>4.934927194138454</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.19563267201656</v>
+        <v>36.54997675313133</v>
       </c>
       <c r="G8">
-        <v>2.077944590506043</v>
+        <v>2.091228728409286</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.58868166888126</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.07611146685479</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.645938175556662</v>
       </c>
       <c r="M8">
-        <v>16.72477932276846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.44350567636661</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>29.05715251730361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.35597815693243</v>
+        <v>24.42002981713683</v>
       </c>
       <c r="C9">
-        <v>13.20923682308822</v>
+        <v>15.13240977137273</v>
       </c>
       <c r="D9">
-        <v>7.78097876600553</v>
+        <v>4.782735509044224</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.30337544996189</v>
+        <v>40.62882478527363</v>
       </c>
       <c r="G9">
-        <v>2.043867862892558</v>
+        <v>2.065111764009818</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>14.27631999509711</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.75082599452625</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.814842472029237</v>
       </c>
       <c r="M9">
-        <v>19.68038848195254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.76451018712013</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.87417169761589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.51678359579423</v>
+        <v>26.80953764369027</v>
       </c>
       <c r="C10">
-        <v>14.62273644443114</v>
+        <v>16.27156325919627</v>
       </c>
       <c r="D10">
-        <v>8.325328109798273</v>
+        <v>4.679310876948314</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.72084600440567</v>
+        <v>43.61088357796309</v>
       </c>
       <c r="G10">
-        <v>2.018751961142462</v>
+        <v>2.046354660645326</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>15.49393860960904</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.59954908337776</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.957404771428108</v>
       </c>
       <c r="M10">
-        <v>21.72689002624344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.02161144600539</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.97376355095206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.47596068866528</v>
+        <v>27.85336714745457</v>
       </c>
       <c r="C11">
-        <v>15.25454750235081</v>
+        <v>16.77321797970309</v>
       </c>
       <c r="D11">
-        <v>8.572767168777801</v>
+        <v>4.634428108324595</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.59336710679359</v>
+        <v>44.96447091470856</v>
       </c>
       <c r="G11">
-        <v>2.007181691936617</v>
+        <v>2.03786342949611</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>16.04553661036087</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.42104177160698</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.026614605695506</v>
       </c>
       <c r="M11">
-        <v>22.63730663405353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.59507106086258</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.93577881445882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.83640289148063</v>
+        <v>28.24272393933906</v>
       </c>
       <c r="C12">
-        <v>15.49271521249273</v>
+        <v>16.96091824236547</v>
       </c>
       <c r="D12">
-        <v>8.666608751117991</v>
+        <v>4.61778168833823</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.67587352244793</v>
+        <v>45.47676832178789</v>
       </c>
       <c r="G12">
-        <v>2.002766362640511</v>
+        <v>2.034649028497298</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>16.25439931951049</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.72990060923373</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.053481080286985</v>
       </c>
       <c r="M12">
-        <v>22.97977496030197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.80895679442371</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.30118624054565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.75888715851123</v>
+        <v>28.15912723179866</v>
       </c>
       <c r="C13">
-        <v>15.44146034007346</v>
+        <v>16.9205922592339</v>
       </c>
       <c r="D13">
-        <v>8.64638882443014</v>
+        <v>4.621350535246523</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.44294212637628</v>
+        <v>45.36644455036692</v>
       </c>
       <c r="G13">
-        <v>2.003719027810138</v>
+        <v>2.035341346172166</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16.20941156692242</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.663470720196</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.047665083545784</v>
       </c>
       <c r="M13">
-        <v>22.90610793108981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.76303533773215</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.22243687584855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.5056660226823</v>
+        <v>27.88551660058064</v>
       </c>
       <c r="C14">
-        <v>15.27416008374382</v>
+        <v>16.78870483875594</v>
       </c>
       <c r="D14">
-        <v>8.580483608801496</v>
+        <v>4.633051338093533</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.68252093982677</v>
+        <v>45.00662219269079</v>
       </c>
       <c r="G14">
-        <v>2.006819204144285</v>
+        <v>2.037598988365848</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>16.06271801170399</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.4464925905353</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.028811539851142</v>
       </c>
       <c r="M14">
-        <v>22.66552324602694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.61273211743063</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.96581780126811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.35022025171196</v>
+        <v>27.71716058609209</v>
       </c>
       <c r="C15">
-        <v>15.1715598062125</v>
+        <v>16.7076288398092</v>
       </c>
       <c r="D15">
-        <v>8.540138971306954</v>
+        <v>4.640265244980556</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.21610752024088</v>
+        <v>44.78619105282794</v>
       </c>
       <c r="G15">
-        <v>2.00871330211819</v>
+        <v>2.038981838316192</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15.97287304459484</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.3133169123599</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.017349924363343</v>
       </c>
       <c r="M15">
-        <v>22.51788241830307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.52024626544578</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.80878119413049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.45367275804527</v>
+        <v>26.74047613467018</v>
       </c>
       <c r="C16">
-        <v>14.58126340232429</v>
+        <v>16.23845503752651</v>
       </c>
       <c r="D16">
-        <v>8.309167080788995</v>
+        <v>4.682290731060414</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.53229506072117</v>
+        <v>43.52237388859542</v>
       </c>
       <c r="G16">
-        <v>2.019504127874399</v>
+        <v>2.046910010893708</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>15.45786879530588</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.54551749125168</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.952972045211622</v>
       </c>
       <c r="M16">
-        <v>21.66703295605839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.98366743502475</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.91104088745002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.89799907893072</v>
+        <v>26.13044959299349</v>
       </c>
       <c r="C17">
-        <v>14.21661098008128</v>
+        <v>15.94646555358357</v>
       </c>
       <c r="D17">
-        <v>8.167532384322108</v>
+        <v>4.708651324087</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.87479906407185</v>
+        <v>42.74637285370601</v>
       </c>
       <c r="G17">
-        <v>2.026078289748945</v>
+        <v>2.0517810043511</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>15.14153486585388</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.06988398622999</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.914615686156453</v>
       </c>
       <c r="M17">
-        <v>21.14023874826792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.64848649102882</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.36213378221646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.57610684215848</v>
+        <v>25.77549582676289</v>
       </c>
       <c r="C18">
-        <v>14.00578205276135</v>
+        <v>15.77695445632059</v>
       </c>
       <c r="D18">
-        <v>8.086037777640334</v>
+        <v>4.724014328760253</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.91693377422965</v>
+        <v>42.29974236886753</v>
       </c>
       <c r="G18">
-        <v>2.029846847463137</v>
+        <v>2.054586903557036</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14.95934689371597</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.79443626859927</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.892962185006721</v>
       </c>
       <c r="M18">
-        <v>20.83526010940102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.45343995067413</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.04705437327168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.46670979487847</v>
+        <v>25.65460515572052</v>
       </c>
       <c r="C19">
-        <v>13.93419729242184</v>
+        <v>15.71928883014894</v>
       </c>
       <c r="D19">
-        <v>8.058435462869785</v>
+        <v>4.729249483652987</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.59180258775281</v>
+        <v>42.14846760964782</v>
       </c>
       <c r="G19">
-        <v>2.031120989355672</v>
+        <v>2.055537799511458</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>14.89761172960421</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.70083619486339</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.885699864712791</v>
       </c>
       <c r="M19">
-        <v>20.73164106253189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.38700779061162</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.94048103888171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.95738354030012</v>
+        <v>26.19580851741468</v>
       </c>
       <c r="C20">
-        <v>14.2555382287654</v>
+        <v>15.9777097148438</v>
       </c>
       <c r="D20">
-        <v>8.182611662206742</v>
+        <v>4.705824131492934</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.0517004514805</v>
+        <v>42.82900933246224</v>
       </c>
       <c r="G20">
-        <v>2.025379862928454</v>
+        <v>2.051262074346886</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>15.17523212712927</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.12070626036216</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.918656336478521</v>
       </c>
       <c r="M20">
-        <v>21.19651742898935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.68439977478766</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.42049929644175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.58011284394005</v>
+        <v>27.96604082444503</v>
       </c>
       <c r="C21">
-        <v>15.3233249883747</v>
+        <v>16.82750380046717</v>
       </c>
       <c r="D21">
-        <v>8.599836158815833</v>
+        <v>4.629604688959708</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.90600386058827</v>
+        <v>45.11231646370148</v>
       </c>
       <c r="G21">
-        <v>2.005909644964349</v>
+        <v>2.036935878233884</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>16.10580286496303</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.51027945968174</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.034331147153219</v>
       </c>
       <c r="M21">
-        <v>22.73624488681078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.65696718908601</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.0411614510186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.62486619076797</v>
+        <v>29.08865230080433</v>
       </c>
       <c r="C22">
-        <v>16.01518206361228</v>
+        <v>17.36976249813915</v>
       </c>
       <c r="D22">
-        <v>8.873454540938825</v>
+        <v>4.5818536890966</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.04894168164758</v>
+        <v>46.6031335212833</v>
       </c>
       <c r="G22">
-        <v>1.992978937462168</v>
+        <v>2.027576192270731</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.71411802755647</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.40584687815777</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.113785657965106</v>
       </c>
       <c r="M22">
-        <v>23.72962846561551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.27362068212625</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.10696449457789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.06846034533871</v>
+        <v>28.49253001061938</v>
       </c>
       <c r="C23">
-        <v>15.64627254454688</v>
+        <v>17.08150485028421</v>
       </c>
       <c r="D23">
-        <v>8.727265798006236</v>
+        <v>4.607135522523695</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.37360736230687</v>
+        <v>45.80750852700999</v>
       </c>
       <c r="G23">
-        <v>1.999904166202073</v>
+        <v>2.032573130670367</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.38930474656889</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.92879578586751</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.071015076811503</v>
       </c>
       <c r="M23">
-        <v>23.20036630474483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.94617810799849</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.53745842922799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.93054343468843</v>
+        <v>26.16627297999649</v>
       </c>
       <c r="C24">
-        <v>14.23794294978941</v>
+        <v>15.96358935369427</v>
       </c>
       <c r="D24">
-        <v>8.175794541149308</v>
+        <v>4.707101660337179</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.97173885407419</v>
+        <v>42.79165093870384</v>
       </c>
       <c r="G24">
-        <v>2.025695655060815</v>
+        <v>2.051496665106912</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>15.159998624714</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.09773578089959</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.916828320867952</v>
       </c>
       <c r="M24">
-        <v>21.17108048158301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.66817070033922</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.3941107149125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.53547604941252</v>
+        <v>23.50005823327445</v>
       </c>
       <c r="C25">
-        <v>12.6757790902009</v>
+        <v>14.69761902282652</v>
       </c>
       <c r="D25">
-        <v>7.579440226816279</v>
+        <v>4.822531713083085</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.89082606196702</v>
+        <v>39.52766679658497</v>
       </c>
       <c r="G25">
-        <v>2.053062994520038</v>
+        <v>2.072085462117698</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13.82428730056586</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>17.04939160781156</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.766014533744666</v>
       </c>
       <c r="M25">
-        <v>18.90471000806873</v>
+        <v>13.41033863937504</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.10673057042991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.39254704631418</v>
+        <v>13.25479878910838</v>
       </c>
       <c r="C2">
-        <v>13.71075267572767</v>
+        <v>6.913685880988608</v>
       </c>
       <c r="D2">
-        <v>4.913026376703088</v>
+        <v>6.441669861955157</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.11474553586874</v>
+        <v>28.47891016704629</v>
       </c>
       <c r="G2">
-        <v>2.087553722123832</v>
+        <v>34.70486258002975</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.71133207792884</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.89758101954532</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.49920334738551</v>
       </c>
       <c r="L2">
-        <v>6.667254764504412</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.62796003363083</v>
+        <v>12.66570091013325</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.87556009014303</v>
       </c>
       <c r="O2">
-        <v>29.44269427042688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.87025296441952</v>
+        <v>12.33773007306598</v>
       </c>
       <c r="C3">
-        <v>13.00702161224711</v>
+        <v>6.481532014154465</v>
       </c>
       <c r="D3">
-        <v>4.977420528443592</v>
+        <v>6.174235732967542</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.47640747575826</v>
+        <v>27.96125018330324</v>
       </c>
       <c r="G3">
-        <v>2.098295953815208</v>
+        <v>33.98331983497182</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.69263610272769</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.845866768061386</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.74366362978181</v>
       </c>
       <c r="L3">
-        <v>6.607514844707431</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.09137615693954</v>
+        <v>12.1510504134877</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.08747351062745</v>
       </c>
       <c r="O3">
-        <v>28.32897017924702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.88808038013608</v>
+        <v>11.74266817401421</v>
       </c>
       <c r="C4">
-        <v>12.55766891113315</v>
+        <v>6.202116248415656</v>
       </c>
       <c r="D4">
-        <v>5.018379504311643</v>
+        <v>6.006948265358741</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.47077206918489</v>
+        <v>27.66125417331678</v>
       </c>
       <c r="G4">
-        <v>2.105038930999938</v>
+        <v>33.56510044085535</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.68855431832935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.817445032948386</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.25400168744593</v>
       </c>
       <c r="L4">
-        <v>6.574232975991789</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.75963673952824</v>
+        <v>11.83066771455146</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.22093927311215</v>
       </c>
       <c r="O4">
-        <v>27.65300055738152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.47575758949873</v>
+        <v>11.51588307163056</v>
       </c>
       <c r="C5">
-        <v>12.37023612181732</v>
+        <v>6.084712920101652</v>
       </c>
       <c r="D5">
-        <v>5.035416676607952</v>
+        <v>5.938100998304544</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.06140795928779</v>
+        <v>27.54349947570713</v>
       </c>
       <c r="G5">
-        <v>2.107826373682179</v>
+        <v>33.40092482843329</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.68868787956044</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.806687459997818</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.04795238561745</v>
       </c>
       <c r="L5">
-        <v>6.56150368162649</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.62403769597425</v>
+        <v>11.69919497960793</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.27618422805035</v>
       </c>
       <c r="O5">
-        <v>27.37970162222723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.40655840291528</v>
+        <v>11.47892677861191</v>
       </c>
       <c r="C6">
-        <v>12.33885337420958</v>
+        <v>6.065004552096215</v>
       </c>
       <c r="D6">
-        <v>5.038266299268498</v>
+        <v>5.926631233149782</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.99347188461606</v>
+        <v>27.52421793377638</v>
       </c>
       <c r="G6">
-        <v>2.108291692152958</v>
+        <v>33.37404121031442</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.68881674064228</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.804950570132315</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.01334418629053</v>
       </c>
       <c r="L6">
-        <v>6.559439701078534</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.60150180802628</v>
+        <v>11.67731474483283</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.28540976044638</v>
       </c>
       <c r="O6">
-        <v>27.33445729471973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88256873215744</v>
+        <v>11.73932146772388</v>
       </c>
       <c r="C7">
-        <v>12.5551585633835</v>
+        <v>6.200547231718238</v>
       </c>
       <c r="D7">
-        <v>5.01860788566339</v>
+        <v>6.006022366095261</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.46524892863514</v>
+        <v>27.65964788646562</v>
       </c>
       <c r="G7">
-        <v>2.105076359682735</v>
+        <v>33.56286099298424</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.68854892735501</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.81729663212456</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.25124922267818</v>
       </c>
       <c r="L7">
-        <v>6.574057958225306</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.75780944462527</v>
+        <v>11.82889806390908</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.22168083887085</v>
       </c>
       <c r="O7">
-        <v>27.64930572022984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.87742304070316</v>
+        <v>12.94519434790114</v>
       </c>
       <c r="C8">
-        <v>13.47169392403119</v>
+        <v>6.767597141913635</v>
       </c>
       <c r="D8">
-        <v>4.934927194138454</v>
+        <v>6.350153731604758</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.54997675313133</v>
+        <v>28.29672446218108</v>
       </c>
       <c r="G8">
-        <v>2.091228728409286</v>
+        <v>34.4509386046574</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.70331220645836</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.879050982254769</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.24401867789475</v>
       </c>
       <c r="L8">
-        <v>6.645938175556662</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.44350567636661</v>
+        <v>12.48926594354574</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.94794107702018</v>
       </c>
       <c r="O8">
-        <v>29.05715251730361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.42002981713683</v>
+        <v>15.05894838550971</v>
       </c>
       <c r="C9">
-        <v>15.13240977137273</v>
+        <v>7.768321986336924</v>
       </c>
       <c r="D9">
-        <v>4.782735509044224</v>
+        <v>6.996816278600221</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.62882478527363</v>
+        <v>29.68687169410715</v>
       </c>
       <c r="G9">
-        <v>2.065111764009818</v>
+        <v>36.38802292661257</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.79380289817843</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.027130824315757</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.98815871301297</v>
       </c>
       <c r="L9">
-        <v>6.814842472029237</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.76451018712013</v>
+        <v>13.74230161508722</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.43707686557396</v>
       </c>
       <c r="O9">
-        <v>31.87417169761589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.80953764369027</v>
+        <v>16.46294423836371</v>
       </c>
       <c r="C10">
-        <v>16.27156325919627</v>
+        <v>8.436704836288305</v>
       </c>
       <c r="D10">
-        <v>4.679310876948314</v>
+        <v>7.45058781349416</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.61088357796309</v>
+        <v>30.79269790190982</v>
       </c>
       <c r="G10">
-        <v>2.046354660645326</v>
+        <v>37.92818256094168</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.90171914684735</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.153089373316752</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.14873248917444</v>
       </c>
       <c r="L10">
-        <v>6.957404771428108</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.02161144600539</v>
+        <v>14.6293645556326</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.07667613897661</v>
       </c>
       <c r="O10">
-        <v>33.97376355095206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.85336714745457</v>
+        <v>17.07022971643139</v>
       </c>
       <c r="C11">
-        <v>16.77321797970309</v>
+        <v>8.726566515001375</v>
       </c>
       <c r="D11">
-        <v>4.634428108324595</v>
+        <v>7.651734197403423</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.96447091470856</v>
+        <v>31.31378781636471</v>
       </c>
       <c r="G11">
-        <v>2.03786342949611</v>
+        <v>38.65373112070132</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.96065649803485</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.214263527299115</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.65114401276911</v>
       </c>
       <c r="L11">
-        <v>7.026614605695506</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.59507106086258</v>
+        <v>15.02438352517684</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.91578237911751</v>
       </c>
       <c r="O11">
-        <v>34.93577881445882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.24272393933906</v>
+        <v>17.29575661347306</v>
       </c>
       <c r="C12">
-        <v>16.96091824236547</v>
+        <v>8.834320106029798</v>
       </c>
       <c r="D12">
-        <v>4.61778168833823</v>
+        <v>7.7271032089942</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.47676832178789</v>
+        <v>31.51368062039186</v>
       </c>
       <c r="G12">
-        <v>2.034649028497298</v>
+        <v>38.93202346885224</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.98446033379409</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.237997251248787</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.83778206147262</v>
       </c>
       <c r="L12">
-        <v>7.053481080286985</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.80895679442371</v>
+        <v>15.17266632799685</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.85528221559044</v>
       </c>
       <c r="O12">
-        <v>35.30118624054565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.15912723179866</v>
+        <v>17.24738152739765</v>
       </c>
       <c r="C13">
-        <v>16.9205922592339</v>
+        <v>8.811202353467795</v>
       </c>
       <c r="D13">
-        <v>4.621350535246523</v>
+        <v>7.710907327273314</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.36644455036692</v>
+        <v>31.47051629319989</v>
       </c>
       <c r="G13">
-        <v>2.035341346172166</v>
+        <v>38.871931169479</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.97926656317974</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.232860308317512</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.79774598880839</v>
       </c>
       <c r="L13">
-        <v>7.047665083545784</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.76303533773215</v>
+        <v>15.14078993894606</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.86829321088428</v>
       </c>
       <c r="O13">
-        <v>35.22243687584855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.88551660058064</v>
+        <v>17.08887246210142</v>
       </c>
       <c r="C14">
-        <v>16.78870483875594</v>
+        <v>8.735471581206248</v>
       </c>
       <c r="D14">
-        <v>4.633051338093533</v>
+        <v>7.657951107066623</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.00662219269079</v>
+        <v>31.33018179214415</v>
       </c>
       <c r="G14">
-        <v>2.037598988365848</v>
+        <v>38.67655558236145</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.96258467926036</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.216204658457966</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.66657092336813</v>
       </c>
       <c r="L14">
-        <v>7.028811539851142</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.61273211743063</v>
+        <v>15.03660932191144</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.91079650727802</v>
       </c>
       <c r="O14">
-        <v>34.96581780126811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.71716058609209</v>
+        <v>16.99120533214896</v>
       </c>
       <c r="C15">
-        <v>16.7076288398092</v>
+        <v>8.688823390688857</v>
       </c>
       <c r="D15">
-        <v>4.640265244980556</v>
+        <v>7.625408524225466</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.78619105282794</v>
+        <v>31.24455652647301</v>
       </c>
       <c r="G15">
-        <v>2.038981838316192</v>
+        <v>38.55734278803379</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.95256208779568</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.206076950671386</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.5857535266445</v>
       </c>
       <c r="L15">
-        <v>7.017349924363343</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.52024626544578</v>
+        <v>14.972624086653</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.93688623837351</v>
       </c>
       <c r="O15">
-        <v>34.80878119413049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.74047613467018</v>
+        <v>16.42263130002693</v>
       </c>
       <c r="C16">
-        <v>16.23845503752651</v>
+        <v>8.417478610633218</v>
       </c>
       <c r="D16">
-        <v>4.682290731060414</v>
+        <v>7.437332440777168</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.52237388859542</v>
+        <v>30.75900403812465</v>
       </c>
       <c r="G16">
-        <v>2.046910010893708</v>
+        <v>37.88126397412299</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.89807151801046</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.149170423980896</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.11538967255069</v>
       </c>
       <c r="L16">
-        <v>6.952972045211622</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.98366743502475</v>
+        <v>14.60337072931874</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.08725130125625</v>
       </c>
       <c r="O16">
-        <v>33.91104088745002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.13044959299349</v>
+        <v>16.06584048380034</v>
       </c>
       <c r="C17">
-        <v>15.94646555358357</v>
+        <v>8.247402964751513</v>
       </c>
       <c r="D17">
-        <v>4.708651324087</v>
+        <v>7.320569501862419</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.74637285370601</v>
+        <v>30.46573318733451</v>
       </c>
       <c r="G17">
-        <v>2.0517810043511</v>
+        <v>37.47286187147584</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.86721443878526</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.115260488386177</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.82033545458801</v>
       </c>
       <c r="L17">
-        <v>6.914615686156453</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.64848649102882</v>
+        <v>14.37460396049786</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.1802685361719</v>
       </c>
       <c r="O17">
-        <v>33.36213378221646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.77549582676289</v>
+        <v>15.85766360967783</v>
       </c>
       <c r="C18">
-        <v>15.77695445632059</v>
+        <v>8.148242369967345</v>
       </c>
       <c r="D18">
-        <v>4.724014328760253</v>
+        <v>7.252915779827068</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.29974236886753</v>
+        <v>30.29875126390808</v>
       </c>
       <c r="G18">
-        <v>2.054586903557036</v>
+        <v>37.24030748005579</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.85038878183167</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.096120452243629</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.64822042923893</v>
       </c>
       <c r="L18">
-        <v>6.892962185006721</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.45343995067413</v>
+        <v>14.24222575061277</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.23405776482732</v>
       </c>
       <c r="O18">
-        <v>33.04705437327168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.65460515572052</v>
+        <v>15.78666781363583</v>
       </c>
       <c r="C19">
-        <v>15.71928883014894</v>
+        <v>8.114437731824383</v>
       </c>
       <c r="D19">
-        <v>4.729249483652987</v>
+        <v>7.22992584997582</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.14846760964782</v>
+        <v>30.2425069298463</v>
       </c>
       <c r="G19">
-        <v>2.055537799511458</v>
+        <v>37.16197322121232</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.84484823362088</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.089702155240141</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.58953002371998</v>
       </c>
       <c r="L19">
-        <v>6.885699864712791</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.38700779061162</v>
+        <v>14.19727048409517</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.25231976277091</v>
       </c>
       <c r="O19">
-        <v>32.94048103888171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.19580851741468</v>
+        <v>16.10412730811151</v>
       </c>
       <c r="C20">
-        <v>15.9777097148438</v>
+        <v>8.265646040935275</v>
       </c>
       <c r="D20">
-        <v>4.705824131492934</v>
+        <v>7.333050656727276</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.82900933246224</v>
+        <v>30.4967766780465</v>
       </c>
       <c r="G20">
-        <v>2.051262074346886</v>
+        <v>37.51609433149865</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.87040324753309</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.118832499613672</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.85199325423101</v>
       </c>
       <c r="L20">
-        <v>6.918656336478521</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.68439977478766</v>
+        <v>14.39903975413639</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.1703369609351</v>
       </c>
       <c r="O20">
-        <v>33.42049929644175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.96604082444503</v>
+        <v>17.13555026107787</v>
       </c>
       <c r="C21">
-        <v>16.82750380046717</v>
+        <v>8.757769858474944</v>
       </c>
       <c r="D21">
-        <v>4.629604688959708</v>
+        <v>7.673527653324555</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.11231646370148</v>
+        <v>31.37133193775568</v>
       </c>
       <c r="G21">
-        <v>2.036935878233884</v>
+        <v>38.73384623595003</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.96744367616213</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.221081309893646</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.70519782389902</v>
       </c>
       <c r="L21">
-        <v>7.034331147153219</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.65696718908601</v>
+        <v>15.06724556880202</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.89830076845106</v>
       </c>
       <c r="O21">
-        <v>35.0411614510186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.08865230080433</v>
+        <v>17.7838095637666</v>
       </c>
       <c r="C22">
-        <v>17.36976249813915</v>
+        <v>9.067697848396547</v>
       </c>
       <c r="D22">
-        <v>4.5818536890966</v>
+        <v>7.891368612074304</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.6031335212833</v>
+        <v>31.95786270285638</v>
       </c>
       <c r="G22">
-        <v>2.027576192270731</v>
+        <v>39.55035974298304</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.03955704696866</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.291225342008589</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.24177978200118</v>
       </c>
       <c r="L22">
-        <v>7.113785657965106</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.27362068212625</v>
+        <v>15.4963428808629</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.72299231231722</v>
       </c>
       <c r="O22">
-        <v>36.10696449457789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.49253001061938</v>
+        <v>17.44015906190583</v>
       </c>
       <c r="C23">
-        <v>17.08150485028421</v>
+        <v>8.903343424237905</v>
       </c>
       <c r="D23">
-        <v>4.607135522523695</v>
+        <v>7.77554253871942</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.80750852700999</v>
+        <v>31.64345829106126</v>
       </c>
       <c r="G23">
-        <v>2.032573130670367</v>
+        <v>39.11269212417706</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.00025022123977</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.253480724834318</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.95730030392581</v>
       </c>
       <c r="L23">
-        <v>7.071015076811503</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.94617810799849</v>
+        <v>15.26804322261597</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.81633432937408</v>
       </c>
       <c r="O23">
-        <v>35.53745842922799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.16627297999649</v>
+        <v>16.08682735022718</v>
       </c>
       <c r="C24">
-        <v>15.96358935369427</v>
+        <v>8.257402652508741</v>
       </c>
       <c r="D24">
-        <v>4.707101660337179</v>
+        <v>7.327409559056187</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.79165093870384</v>
+        <v>30.4827368571735</v>
       </c>
       <c r="G24">
-        <v>2.051496665106912</v>
+        <v>37.49654195148218</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.86895874393907</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.11721648769216</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.83768850579309</v>
       </c>
       <c r="L24">
-        <v>6.916828320867952</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.66817070033922</v>
+        <v>14.38799499547548</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.17482605214715</v>
       </c>
       <c r="O24">
-        <v>33.3941107149125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50005823327445</v>
+        <v>14.51358458789007</v>
       </c>
       <c r="C25">
-        <v>14.69761902282652</v>
+        <v>7.50942915954783</v>
       </c>
       <c r="D25">
-        <v>4.822531713083085</v>
+        <v>6.825365791081024</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.52766679658497</v>
+        <v>29.29584737965589</v>
       </c>
       <c r="G25">
-        <v>2.072085462117698</v>
+        <v>35.84326100950796</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.76233108219142</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.98410664044997</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.53775813877115</v>
       </c>
       <c r="L25">
-        <v>6.766014533744666</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.41033863937504</v>
+        <v>13.40871969931811</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.57259458211315</v>
       </c>
       <c r="O25">
-        <v>31.10673057042991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.25479878910838</v>
+        <v>11.90779893785448</v>
       </c>
       <c r="C2">
-        <v>6.913685880988608</v>
+        <v>4.353067274805006</v>
       </c>
       <c r="D2">
-        <v>6.441669861955157</v>
+        <v>8.985354263626654</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.47891016704629</v>
+        <v>38.73766724238035</v>
       </c>
       <c r="G2">
-        <v>34.70486258002975</v>
+        <v>43.59806339162412</v>
       </c>
       <c r="H2">
-        <v>11.71133207792884</v>
+        <v>17.97269535343644</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.89758101954532</v>
+        <v>11.23826257278955</v>
       </c>
       <c r="K2">
-        <v>11.49920334738551</v>
+        <v>11.35772170166656</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.66570091013325</v>
+        <v>16.97011953645116</v>
       </c>
       <c r="N2">
-        <v>13.87556009014303</v>
+        <v>21.19883263867738</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.33773007306598</v>
+        <v>11.69789897467016</v>
       </c>
       <c r="C3">
-        <v>6.481532014154465</v>
+        <v>4.191309861264235</v>
       </c>
       <c r="D3">
-        <v>6.174235732967542</v>
+        <v>8.957951698739503</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.96125018330324</v>
+        <v>38.74910436825096</v>
       </c>
       <c r="G3">
-        <v>33.98331983497182</v>
+        <v>43.58077420702121</v>
       </c>
       <c r="H3">
-        <v>11.69263610272769</v>
+        <v>18.01103046508671</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.845866768061386</v>
+        <v>11.25479606892346</v>
       </c>
       <c r="K3">
-        <v>10.74366362978181</v>
+        <v>11.22480203160382</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.1510504134877</v>
+        <v>16.9158943202418</v>
       </c>
       <c r="N3">
-        <v>14.08747351062745</v>
+        <v>21.26097190208221</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.74266817401421</v>
+        <v>11.57011138426196</v>
       </c>
       <c r="C4">
-        <v>6.202116248415656</v>
+        <v>4.089714012164198</v>
       </c>
       <c r="D4">
-        <v>6.006948265358741</v>
+        <v>8.942617520785248</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.66125417331678</v>
+        <v>38.76455298019199</v>
       </c>
       <c r="G4">
-        <v>33.56510044085535</v>
+        <v>43.58137034467603</v>
       </c>
       <c r="H4">
-        <v>11.68855431832935</v>
+        <v>18.03741704379481</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.817445032948386</v>
+        <v>11.2664844792197</v>
       </c>
       <c r="K4">
-        <v>10.25400168744593</v>
+        <v>11.14499320506851</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.83066771455146</v>
+        <v>16.88576291646637</v>
       </c>
       <c r="N4">
-        <v>14.22093927311215</v>
+        <v>21.30099597035992</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51588307163056</v>
+        <v>11.51838564156701</v>
       </c>
       <c r="C5">
-        <v>6.084712920101652</v>
+        <v>4.047809911074507</v>
       </c>
       <c r="D5">
-        <v>5.938100998304544</v>
+        <v>8.936748219830289</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.54349947570713</v>
+        <v>38.77296645710771</v>
       </c>
       <c r="G5">
-        <v>33.40092482843329</v>
+        <v>43.58443187390767</v>
       </c>
       <c r="H5">
-        <v>11.68868787956044</v>
+        <v>18.04888549408609</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.806687459997818</v>
+        <v>11.27163414047124</v>
       </c>
       <c r="K5">
-        <v>10.04795238561745</v>
+        <v>11.11296170040932</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.69919497960793</v>
+        <v>16.87428862025749</v>
       </c>
       <c r="N5">
-        <v>14.27618422805035</v>
+        <v>21.31777751770741</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.47892677861191</v>
+        <v>11.50981985698996</v>
       </c>
       <c r="C6">
-        <v>6.065004552096215</v>
+        <v>4.040823548798962</v>
       </c>
       <c r="D6">
-        <v>5.926631233149782</v>
+        <v>8.935796673727889</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.52421793377638</v>
+        <v>38.77449139014482</v>
       </c>
       <c r="G6">
-        <v>33.37404121031442</v>
+        <v>43.58511041570993</v>
       </c>
       <c r="H6">
-        <v>11.68881674064228</v>
+        <v>18.05083302926137</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.804950570132315</v>
+        <v>11.27251258604906</v>
       </c>
       <c r="K6">
-        <v>10.01334418629053</v>
+        <v>11.10767364096009</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.67731474483283</v>
+        <v>16.87243216164091</v>
       </c>
       <c r="N6">
-        <v>14.28540976044638</v>
+        <v>21.32059258589293</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.73932146772388</v>
+        <v>11.56941228257971</v>
       </c>
       <c r="C7">
-        <v>6.200547231718238</v>
+        <v>4.089150818660713</v>
       </c>
       <c r="D7">
-        <v>6.006022366095261</v>
+        <v>8.942536823005469</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.65964788646562</v>
+        <v>38.76465787325822</v>
       </c>
       <c r="G7">
-        <v>33.56286099298424</v>
+        <v>43.58140022359544</v>
       </c>
       <c r="H7">
-        <v>11.68854892735501</v>
+        <v>18.03756881434231</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.81729663212456</v>
+        <v>11.26655236416385</v>
       </c>
       <c r="K7">
-        <v>10.25124922267818</v>
+        <v>11.14455917912288</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.82889806390908</v>
+        <v>16.88560490130946</v>
       </c>
       <c r="N7">
-        <v>14.22168083887085</v>
+        <v>21.30122038197929</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.94519434790114</v>
+        <v>11.8352432021487</v>
       </c>
       <c r="C8">
-        <v>6.767597141913635</v>
+        <v>4.29780528241019</v>
       </c>
       <c r="D8">
-        <v>6.350153731604758</v>
+        <v>8.975599214451083</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.29672446218108</v>
+        <v>38.73986172936816</v>
       </c>
       <c r="G8">
-        <v>34.4509386046574</v>
+        <v>43.58977524391318</v>
       </c>
       <c r="H8">
-        <v>11.70331220645836</v>
+        <v>17.98532170567198</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.879050982254769</v>
+        <v>11.24364443764387</v>
       </c>
       <c r="K8">
-        <v>11.24401867789475</v>
+        <v>11.31153927093634</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.48926594354574</v>
+        <v>16.9507718885904</v>
       </c>
       <c r="N8">
-        <v>13.94794107702018</v>
+        <v>21.21987074468878</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05894838550971</v>
+        <v>12.3619727946164</v>
       </c>
       <c r="C9">
-        <v>7.768321986336924</v>
+        <v>4.686206579486374</v>
       </c>
       <c r="D9">
-        <v>6.996816278600221</v>
+        <v>9.052050810098814</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.68687169410715</v>
+        <v>38.75809087046888</v>
       </c>
       <c r="G9">
-        <v>36.38802292661257</v>
+        <v>43.69510703866259</v>
       </c>
       <c r="H9">
-        <v>11.79380289817843</v>
+        <v>17.90549439079989</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.027130824315757</v>
+        <v>11.21091035875508</v>
       </c>
       <c r="K9">
-        <v>12.98815871301297</v>
+        <v>11.65161773435791</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.74230161508722</v>
+        <v>17.10322627125694</v>
       </c>
       <c r="N9">
-        <v>13.43707686557396</v>
+        <v>21.07513285270793</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.46294423836371</v>
+        <v>12.7480453838794</v>
       </c>
       <c r="C10">
-        <v>8.436704836288305</v>
+        <v>4.955732683293357</v>
       </c>
       <c r="D10">
-        <v>7.45058781349416</v>
+        <v>9.114992387456013</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.79269790190982</v>
+        <v>38.81217822582329</v>
       </c>
       <c r="G10">
-        <v>37.92818256094168</v>
+        <v>43.8265039372701</v>
       </c>
       <c r="H10">
-        <v>11.90171914684735</v>
+        <v>17.86067448491039</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.153089373316752</v>
+        <v>11.19428256419442</v>
       </c>
       <c r="K10">
-        <v>14.14873248917444</v>
+        <v>11.90688289564317</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.6293645556326</v>
+        <v>17.22963587029978</v>
       </c>
       <c r="N10">
-        <v>13.07667613897661</v>
+        <v>20.97773593555449</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.07022971643139</v>
+        <v>12.92262543080907</v>
       </c>
       <c r="C11">
-        <v>8.726566515001375</v>
+        <v>5.07436173128782</v>
       </c>
       <c r="D11">
-        <v>7.651734197403423</v>
+        <v>9.145024207930039</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.31378781636471</v>
+        <v>38.84558488692189</v>
       </c>
       <c r="G11">
-        <v>38.65373112070132</v>
+        <v>43.89792325161246</v>
       </c>
       <c r="H11">
-        <v>11.96065649803485</v>
+        <v>17.84329368753885</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.214263527299115</v>
+        <v>11.18832710347411</v>
       </c>
       <c r="K11">
-        <v>14.65114401276911</v>
+        <v>12.02369589442116</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.02438352517684</v>
+        <v>17.29011963289073</v>
       </c>
       <c r="N11">
-        <v>12.91578237911751</v>
+        <v>20.93535367176468</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.29575661347306</v>
+        <v>12.98851624741206</v>
       </c>
       <c r="C12">
-        <v>8.834320106029798</v>
+        <v>5.118673017765928</v>
       </c>
       <c r="D12">
-        <v>7.7271032089942</v>
+        <v>9.156591091459571</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.51368062039186</v>
+        <v>38.85949582159418</v>
       </c>
       <c r="G12">
-        <v>38.93202346885224</v>
+        <v>43.92663185311091</v>
       </c>
       <c r="H12">
-        <v>11.98446033379409</v>
+        <v>17.83714494848768</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.237997251248787</v>
+        <v>11.18630291888739</v>
       </c>
       <c r="K12">
-        <v>14.83778206147262</v>
+        <v>12.06798896377434</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.17266632799685</v>
+        <v>17.31343790006265</v>
       </c>
       <c r="N12">
-        <v>12.85528221559044</v>
+        <v>20.91958017266744</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.24738152739765</v>
+        <v>12.9743362697191</v>
       </c>
       <c r="C13">
-        <v>8.811202353467795</v>
+        <v>5.109157524808613</v>
       </c>
       <c r="D13">
-        <v>7.710907327273314</v>
+        <v>9.154091416658645</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.47051629319989</v>
+        <v>38.85644388377963</v>
       </c>
       <c r="G13">
-        <v>38.871931169479</v>
+        <v>43.92037514917943</v>
       </c>
       <c r="H13">
-        <v>11.97926656317974</v>
+        <v>17.83844992578443</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.232860308317512</v>
+        <v>11.1867285939072</v>
       </c>
       <c r="K13">
-        <v>14.79774598880839</v>
+        <v>12.05844770035232</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.14078993894606</v>
+        <v>17.30839769482577</v>
       </c>
       <c r="N13">
-        <v>12.86829321088428</v>
+        <v>20.92296502884629</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.08887246210142</v>
+        <v>12.92805107455433</v>
       </c>
       <c r="C14">
-        <v>8.735471581206248</v>
+        <v>5.078019695794017</v>
       </c>
       <c r="D14">
-        <v>7.657951107066623</v>
+        <v>9.145971964235395</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.33018179214415</v>
+        <v>38.84670411812812</v>
       </c>
       <c r="G14">
-        <v>38.67655558236145</v>
+        <v>43.90025185426409</v>
       </c>
       <c r="H14">
-        <v>11.96258467926036</v>
+        <v>17.84277914701079</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.216204658457966</v>
+        <v>11.18815594451016</v>
       </c>
       <c r="K14">
-        <v>14.66657092336813</v>
+        <v>12.02733897103704</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.03660932191144</v>
+        <v>17.29202981872359</v>
       </c>
       <c r="N14">
-        <v>12.91079650727802</v>
+        <v>20.93405045547861</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.99120533214896</v>
+        <v>12.89966957890413</v>
       </c>
       <c r="C15">
-        <v>8.688823390688857</v>
+        <v>5.05886624926328</v>
       </c>
       <c r="D15">
-        <v>7.625408524225466</v>
+        <v>9.141023688004807</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.24455652647301</v>
+        <v>38.84090221922133</v>
       </c>
       <c r="G15">
-        <v>38.55734278803379</v>
+        <v>43.88814204787256</v>
       </c>
       <c r="H15">
-        <v>11.95256208779568</v>
+        <v>17.84548732017344</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.206076950671386</v>
+        <v>11.18906031377009</v>
       </c>
       <c r="K15">
-        <v>14.5857535266445</v>
+        <v>12.00829039414026</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.972624086653</v>
+        <v>17.28205755850999</v>
       </c>
       <c r="N15">
-        <v>12.93688623837351</v>
+        <v>20.94087648192311</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.42263130002693</v>
+        <v>12.73660919349406</v>
       </c>
       <c r="C16">
-        <v>8.417478610633218</v>
+        <v>4.947896491323374</v>
       </c>
       <c r="D16">
-        <v>7.437332440777168</v>
+        <v>9.113057326307176</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.75900403812465</v>
+        <v>38.81017172627408</v>
       </c>
       <c r="G16">
-        <v>37.88126397412299</v>
+        <v>43.82206997255083</v>
       </c>
       <c r="H16">
-        <v>11.89807151801046</v>
+        <v>17.86187092937706</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.149170423980896</v>
+        <v>11.19470411270018</v>
       </c>
       <c r="K16">
-        <v>14.11538967255069</v>
+        <v>11.89925929478918</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.60337072931874</v>
+        <v>17.22574188037614</v>
       </c>
       <c r="N16">
-        <v>13.08725130125625</v>
+        <v>20.98054435320801</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.06584048380034</v>
+        <v>12.63625928227547</v>
       </c>
       <c r="C17">
-        <v>8.247402964751513</v>
+        <v>4.878771687010283</v>
       </c>
       <c r="D17">
-        <v>7.320569501862419</v>
+        <v>9.096254574854621</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.46573318733451</v>
+        <v>38.79357066939191</v>
       </c>
       <c r="G17">
-        <v>37.47286187147584</v>
+        <v>43.78451258320656</v>
       </c>
       <c r="H17">
-        <v>11.86721443878526</v>
+        <v>17.8726925055564</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.115260488386177</v>
+        <v>11.19857820911404</v>
       </c>
       <c r="K17">
-        <v>13.82033545458801</v>
+        <v>11.83252006534356</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.37460396049786</v>
+        <v>17.19194733569627</v>
       </c>
       <c r="N17">
-        <v>13.1802685361719</v>
+        <v>21.00537143967357</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.85766360967783</v>
+        <v>12.5784460844425</v>
       </c>
       <c r="C18">
-        <v>8.148242369967345</v>
+        <v>4.838640309884638</v>
       </c>
       <c r="D18">
-        <v>7.252915779827068</v>
+        <v>9.086722215012177</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.29875126390808</v>
+        <v>38.78485105338267</v>
       </c>
       <c r="G18">
-        <v>37.24030748005579</v>
+        <v>43.76400756024834</v>
       </c>
       <c r="H18">
-        <v>11.85038878183167</v>
+        <v>17.87919989557611</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.096120452243629</v>
+        <v>11.20095791762603</v>
       </c>
       <c r="K18">
-        <v>13.64822042923893</v>
+        <v>11.79420093818686</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.24222575061277</v>
+        <v>17.17279092602348</v>
       </c>
       <c r="N18">
-        <v>13.23405776482732</v>
+        <v>21.01983248175818</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.78666781363583</v>
+        <v>12.55885742004119</v>
       </c>
       <c r="C19">
-        <v>8.114437731824383</v>
+        <v>4.824989779817998</v>
       </c>
       <c r="D19">
-        <v>7.22992584997582</v>
+        <v>9.083517617565391</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.2425069298463</v>
+        <v>38.78204123960829</v>
       </c>
       <c r="G19">
-        <v>37.16197322121232</v>
+        <v>43.75725362337363</v>
       </c>
       <c r="H19">
-        <v>11.84484823362088</v>
+        <v>17.8814517949005</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.089702155240141</v>
+        <v>11.20178966257948</v>
       </c>
       <c r="K19">
-        <v>13.58953002371998</v>
+        <v>11.78123959285378</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.19727048409517</v>
+        <v>17.16635362939803</v>
       </c>
       <c r="N19">
-        <v>13.25231976277091</v>
+        <v>21.02475988512269</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.10412730811151</v>
+        <v>12.64695199618255</v>
       </c>
       <c r="C20">
-        <v>8.265646040935275</v>
+        <v>4.886169001221933</v>
       </c>
       <c r="D20">
-        <v>7.333050656727276</v>
+        <v>9.09802962858571</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.4967766780465</v>
+        <v>38.79525212874741</v>
       </c>
       <c r="G20">
-        <v>37.51609433149865</v>
+        <v>43.78839716986885</v>
       </c>
       <c r="H20">
-        <v>11.87040324753309</v>
+        <v>17.87151122643709</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.118832499613672</v>
+        <v>11.19815013440364</v>
       </c>
       <c r="K20">
-        <v>13.85199325423101</v>
+        <v>11.83961788150407</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.39903975413639</v>
+        <v>17.19551580704807</v>
       </c>
       <c r="N20">
-        <v>13.1703369609351</v>
+        <v>21.00270981151235</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.13555026107787</v>
+        <v>12.94165262727091</v>
       </c>
       <c r="C21">
-        <v>8.757769858474944</v>
+        <v>5.087182495673916</v>
       </c>
       <c r="D21">
-        <v>7.673527653324555</v>
+        <v>9.148351621072399</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.37133193775568</v>
+        <v>38.84953075910742</v>
       </c>
       <c r="G21">
-        <v>38.73384623595003</v>
+        <v>43.90611750125771</v>
       </c>
       <c r="H21">
-        <v>11.96744367616213</v>
+        <v>17.84149579536826</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.221081309893646</v>
+        <v>11.187730429873</v>
       </c>
       <c r="K21">
-        <v>14.70519782389902</v>
+        <v>12.03647509345214</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.06724556880202</v>
+        <v>17.29682632968625</v>
       </c>
       <c r="N21">
-        <v>12.89830076845106</v>
+        <v>20.930786920718</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.7838095637666</v>
+        <v>13.13295144384674</v>
       </c>
       <c r="C22">
-        <v>9.067697848396547</v>
+        <v>5.214980791044292</v>
       </c>
       <c r="D22">
-        <v>7.891368612074304</v>
+        <v>9.182370242328554</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.95786270285638</v>
+        <v>38.89234926678717</v>
       </c>
       <c r="G22">
-        <v>39.55035974298304</v>
+        <v>43.99274498430439</v>
       </c>
       <c r="H22">
-        <v>12.03955704696866</v>
+        <v>17.8244029335123</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.291225342008589</v>
+        <v>11.18226693153582</v>
       </c>
       <c r="K22">
-        <v>15.24177978200118</v>
+        <v>12.16545531415008</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.4963428808629</v>
+        <v>17.36544698093206</v>
       </c>
       <c r="N22">
-        <v>12.72299231231722</v>
+        <v>20.88538798036568</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.44015906190583</v>
+        <v>13.03099283567845</v>
       </c>
       <c r="C23">
-        <v>8.903343424237905</v>
+        <v>5.147111113012769</v>
       </c>
       <c r="D23">
-        <v>7.77554253871942</v>
+        <v>9.164112739989589</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.64345829106126</v>
+        <v>38.86882622446985</v>
       </c>
       <c r="G23">
-        <v>39.11269212417706</v>
+        <v>43.94562779142944</v>
       </c>
       <c r="H23">
-        <v>12.00025022123977</v>
+        <v>17.83329464679242</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.253480724834318</v>
+        <v>11.18505982126428</v>
       </c>
       <c r="K23">
-        <v>14.95730030392581</v>
+        <v>12.09659995519034</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.26804322261597</v>
+        <v>17.32860728443724</v>
       </c>
       <c r="N23">
-        <v>12.81633432937408</v>
+        <v>20.90947152963578</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.08682735022718</v>
+        <v>12.64211819091185</v>
       </c>
       <c r="C24">
-        <v>8.257402652508741</v>
+        <v>4.882825889134891</v>
       </c>
       <c r="D24">
-        <v>7.327409559056187</v>
+        <v>9.097226728318656</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.4827368571735</v>
+        <v>38.79448937210628</v>
       </c>
       <c r="G24">
-        <v>37.49654195148218</v>
+        <v>43.78663756072576</v>
       </c>
       <c r="H24">
-        <v>11.86895874393907</v>
+        <v>17.87204439209436</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.11721648769216</v>
+        <v>11.19834319212312</v>
       </c>
       <c r="K24">
-        <v>13.83768850579309</v>
+        <v>11.83640879948017</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.38799499547548</v>
+        <v>17.19390165119742</v>
       </c>
       <c r="N24">
-        <v>13.17482605214715</v>
+        <v>21.00391254907019</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.51358458789007</v>
+        <v>12.21934042520073</v>
       </c>
       <c r="C25">
-        <v>7.50942915954783</v>
+        <v>4.583708991178358</v>
       </c>
       <c r="D25">
-        <v>6.825365791081024</v>
+        <v>9.030155592565457</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.29584737965589</v>
+        <v>38.74600420609866</v>
       </c>
       <c r="G25">
-        <v>35.84326100950796</v>
+        <v>43.65710512554944</v>
       </c>
       <c r="H25">
-        <v>11.76233108219142</v>
+        <v>17.92466342641598</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.98410664044997</v>
+        <v>11.21846162918806</v>
       </c>
       <c r="K25">
-        <v>12.53775813877115</v>
+        <v>11.5585010029925</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.40871969931811</v>
+        <v>17.05940540505073</v>
       </c>
       <c r="N25">
-        <v>13.57259458211315</v>
+        <v>21.11271272834911</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.90779893785448</v>
+        <v>13.25479878910839</v>
       </c>
       <c r="C2">
-        <v>4.353067274805006</v>
+        <v>6.913685880988759</v>
       </c>
       <c r="D2">
-        <v>8.985354263626654</v>
+        <v>6.441669861955098</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.73766724238035</v>
+        <v>28.47891016704612</v>
       </c>
       <c r="G2">
-        <v>43.59806339162412</v>
+        <v>34.70486258002936</v>
       </c>
       <c r="H2">
-        <v>17.97269535343644</v>
+        <v>11.71133207792885</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.23826257278955</v>
+        <v>6.897581019545202</v>
       </c>
       <c r="K2">
-        <v>11.35772170166656</v>
+        <v>11.49920334738558</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.97011953645116</v>
+        <v>12.66570091013318</v>
       </c>
       <c r="N2">
-        <v>21.19883263867738</v>
+        <v>13.87556009014293</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69789897467016</v>
+        <v>12.33773007306603</v>
       </c>
       <c r="C3">
-        <v>4.191309861264235</v>
+        <v>6.481532014154371</v>
       </c>
       <c r="D3">
-        <v>8.957951698739503</v>
+        <v>6.174235732967536</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.74910436825096</v>
+        <v>27.96125018330325</v>
       </c>
       <c r="G3">
-        <v>43.58077420702121</v>
+        <v>33.98331983497184</v>
       </c>
       <c r="H3">
-        <v>18.01103046508671</v>
+        <v>11.6926361027277</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.25479606892346</v>
+        <v>6.84586676806149</v>
       </c>
       <c r="K3">
-        <v>11.22480203160382</v>
+        <v>10.74366362978184</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.9158943202418</v>
+        <v>12.15105041348772</v>
       </c>
       <c r="N3">
-        <v>21.26097190208221</v>
+        <v>14.08747351062749</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.57011138426196</v>
+        <v>11.74266817401422</v>
       </c>
       <c r="C4">
-        <v>4.089714012164198</v>
+        <v>6.202116248415861</v>
       </c>
       <c r="D4">
-        <v>8.942617520785248</v>
+        <v>6.006948265358711</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.76455298019199</v>
+        <v>27.66125417331659</v>
       </c>
       <c r="G4">
-        <v>43.58137034467603</v>
+        <v>33.56510044085512</v>
       </c>
       <c r="H4">
-        <v>18.03741704379481</v>
+        <v>11.6885543183293</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.2664844792197</v>
+        <v>6.817445032948356</v>
       </c>
       <c r="K4">
-        <v>11.14499320506851</v>
+        <v>10.254001687446</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.88576291646637</v>
+        <v>11.83066771455143</v>
       </c>
       <c r="N4">
-        <v>21.30099597035992</v>
+        <v>14.22093927311209</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51838564156701</v>
+        <v>11.51588307163057</v>
       </c>
       <c r="C5">
-        <v>4.047809911074507</v>
+        <v>6.084712920101636</v>
       </c>
       <c r="D5">
-        <v>8.936748219830289</v>
+        <v>5.93810099830455</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.77296645710771</v>
+        <v>27.54349947570722</v>
       </c>
       <c r="G5">
-        <v>43.58443187390767</v>
+        <v>33.40092482843337</v>
       </c>
       <c r="H5">
-        <v>18.04888549408609</v>
+        <v>11.68868787956053</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.27163414047124</v>
+        <v>6.806687459997733</v>
       </c>
       <c r="K5">
-        <v>11.11296170040932</v>
+        <v>10.04795238561739</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.87428862025749</v>
+        <v>11.69919497960792</v>
       </c>
       <c r="N5">
-        <v>21.31777751770741</v>
+        <v>14.27618422805041</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.50981985698996</v>
+        <v>11.47892677861191</v>
       </c>
       <c r="C6">
-        <v>4.040823548798962</v>
+        <v>6.065004552096199</v>
       </c>
       <c r="D6">
-        <v>8.935796673727889</v>
+        <v>5.926631233149766</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.77449139014482</v>
+        <v>27.52421793377628</v>
       </c>
       <c r="G6">
-        <v>43.58511041570993</v>
+        <v>33.37404121031425</v>
       </c>
       <c r="H6">
-        <v>18.05083302926137</v>
+        <v>11.68881674064228</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.27251258604906</v>
+        <v>6.804950570132322</v>
       </c>
       <c r="K6">
-        <v>11.10767364096009</v>
+        <v>10.01334418629055</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.87243216164091</v>
+        <v>11.67731474483281</v>
       </c>
       <c r="N6">
-        <v>21.32059258589293</v>
+        <v>14.28540976044635</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.56941228257971</v>
+        <v>11.73932146772389</v>
       </c>
       <c r="C7">
-        <v>4.089150818660713</v>
+        <v>6.200547231718369</v>
       </c>
       <c r="D7">
-        <v>8.942536823005469</v>
+        <v>6.006022366095345</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.76465787325822</v>
+        <v>27.65964788646559</v>
       </c>
       <c r="G7">
-        <v>43.58140022359544</v>
+        <v>33.56286099298419</v>
       </c>
       <c r="H7">
-        <v>18.03756881434231</v>
+        <v>11.68854892735497</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.26655236416385</v>
+        <v>6.817296632124505</v>
       </c>
       <c r="K7">
-        <v>11.14455917912288</v>
+        <v>10.25124922267822</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.88560490130946</v>
+        <v>11.82889806390905</v>
       </c>
       <c r="N7">
-        <v>21.30122038197929</v>
+        <v>14.22168083887081</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.8352432021487</v>
+        <v>12.94519434790113</v>
       </c>
       <c r="C8">
-        <v>4.29780528241019</v>
+        <v>6.767597141913795</v>
       </c>
       <c r="D8">
-        <v>8.975599214451083</v>
+        <v>6.35015373160471</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.73986172936816</v>
+        <v>28.29672446218085</v>
       </c>
       <c r="G8">
-        <v>43.58977524391318</v>
+        <v>34.45093860465716</v>
       </c>
       <c r="H8">
-        <v>17.98532170567198</v>
+        <v>11.70331220645824</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.24364443764387</v>
+        <v>6.8790509822548</v>
       </c>
       <c r="K8">
-        <v>11.31153927093634</v>
+        <v>11.2440186778948</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.9507718885904</v>
+        <v>12.48926594354573</v>
       </c>
       <c r="N8">
-        <v>21.21987074468878</v>
+        <v>13.94794107702008</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.3619727946164</v>
+        <v>15.05894838550972</v>
       </c>
       <c r="C9">
-        <v>4.686206579486374</v>
+        <v>7.768321986336947</v>
       </c>
       <c r="D9">
-        <v>9.052050810098814</v>
+        <v>6.996816278600231</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.75809087046888</v>
+        <v>29.68687169410696</v>
       </c>
       <c r="G9">
-        <v>43.69510703866259</v>
+        <v>36.3880229266124</v>
       </c>
       <c r="H9">
-        <v>17.90549439079989</v>
+        <v>11.79380289817824</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.21091035875508</v>
+        <v>7.027130824315734</v>
       </c>
       <c r="K9">
-        <v>11.65161773435791</v>
+        <v>12.98815871301299</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.10322627125694</v>
+        <v>13.74230161508723</v>
       </c>
       <c r="N9">
-        <v>21.07513285270793</v>
+        <v>13.43707686557376</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.7480453838794</v>
+        <v>16.46294423836372</v>
       </c>
       <c r="C10">
-        <v>4.955732683293357</v>
+        <v>8.436704836288241</v>
       </c>
       <c r="D10">
-        <v>9.114992387456013</v>
+        <v>7.45058781349411</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.81217822582329</v>
+        <v>30.79269790190979</v>
       </c>
       <c r="G10">
-        <v>43.8265039372701</v>
+        <v>37.92818256094169</v>
       </c>
       <c r="H10">
-        <v>17.86067448491039</v>
+        <v>11.90171914684734</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.19428256419442</v>
+        <v>7.153089373316759</v>
       </c>
       <c r="K10">
-        <v>11.90688289564317</v>
+        <v>14.14873248917441</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.22963587029978</v>
+        <v>14.62936455563261</v>
       </c>
       <c r="N10">
-        <v>20.97773593555449</v>
+        <v>13.0766761389766</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.92262543080907</v>
+        <v>17.07022971643137</v>
       </c>
       <c r="C11">
-        <v>5.07436173128782</v>
+        <v>8.726566515001384</v>
       </c>
       <c r="D11">
-        <v>9.145024207930039</v>
+        <v>7.651734197403486</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.84558488692189</v>
+        <v>31.31378781636473</v>
       </c>
       <c r="G11">
-        <v>43.89792325161246</v>
+        <v>38.65373112070126</v>
       </c>
       <c r="H11">
-        <v>17.84329368753885</v>
+        <v>11.96065649803487</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.18832710347411</v>
+        <v>7.214263527299142</v>
       </c>
       <c r="K11">
-        <v>12.02369589442116</v>
+        <v>14.6511440127691</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.29011963289073</v>
+        <v>15.02438352517687</v>
       </c>
       <c r="N11">
-        <v>20.93535367176468</v>
+        <v>12.9157823791175</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.98851624741206</v>
+        <v>17.29575661347295</v>
       </c>
       <c r="C12">
-        <v>5.118673017765928</v>
+        <v>8.834320106029947</v>
       </c>
       <c r="D12">
-        <v>9.156591091459571</v>
+        <v>7.727103208994135</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.85949582159418</v>
+        <v>31.51368062039187</v>
       </c>
       <c r="G12">
-        <v>43.92663185311091</v>
+        <v>38.93202346885218</v>
       </c>
       <c r="H12">
-        <v>17.83714494848768</v>
+        <v>11.98446033379416</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.18630291888739</v>
+        <v>7.237997251248752</v>
       </c>
       <c r="K12">
-        <v>12.06798896377434</v>
+        <v>14.83778206147258</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.31343790006265</v>
+        <v>15.17266632799682</v>
       </c>
       <c r="N12">
-        <v>20.91958017266744</v>
+        <v>12.8552822155905</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.9743362697191</v>
+        <v>17.2473815273977</v>
       </c>
       <c r="C13">
-        <v>5.109157524808613</v>
+        <v>8.811202353467742</v>
       </c>
       <c r="D13">
-        <v>9.154091416658645</v>
+        <v>7.710907327273326</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.85644388377963</v>
+        <v>31.47051629319984</v>
       </c>
       <c r="G13">
-        <v>43.92037514917943</v>
+        <v>38.87193116947891</v>
       </c>
       <c r="H13">
-        <v>17.83844992578443</v>
+        <v>11.9792665631797</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.1867285939072</v>
+        <v>7.232860308317515</v>
       </c>
       <c r="K13">
-        <v>12.05844770035232</v>
+        <v>14.79774598880842</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.30839769482577</v>
+        <v>15.14078993894606</v>
       </c>
       <c r="N13">
-        <v>20.92296502884629</v>
+        <v>12.86829321088424</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.92805107455433</v>
+        <v>17.08887246210142</v>
       </c>
       <c r="C14">
-        <v>5.078019695794017</v>
+        <v>8.735471581206115</v>
       </c>
       <c r="D14">
-        <v>9.145971964235395</v>
+        <v>7.657951107066614</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.84670411812812</v>
+        <v>31.3301817921442</v>
       </c>
       <c r="G14">
-        <v>43.90025185426409</v>
+        <v>38.67655558236149</v>
       </c>
       <c r="H14">
-        <v>17.84277914701079</v>
+        <v>11.96258467926044</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.18815594451016</v>
+        <v>7.216204658457967</v>
       </c>
       <c r="K14">
-        <v>12.02733897103704</v>
+        <v>14.66657092336809</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.29202981872359</v>
+        <v>15.03660932191145</v>
       </c>
       <c r="N14">
-        <v>20.93405045547861</v>
+        <v>12.91079650727811</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.89966957890413</v>
+        <v>16.99120533214896</v>
       </c>
       <c r="C15">
-        <v>5.05886624926328</v>
+        <v>8.688823390688935</v>
       </c>
       <c r="D15">
-        <v>9.141023688004807</v>
+        <v>7.625408524225458</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.84090221922133</v>
+        <v>31.24455652647297</v>
       </c>
       <c r="G15">
-        <v>43.88814204787256</v>
+        <v>38.55734278803374</v>
       </c>
       <c r="H15">
-        <v>17.84548732017344</v>
+        <v>11.9525620877957</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.18906031377009</v>
+        <v>7.206076950671349</v>
       </c>
       <c r="K15">
-        <v>12.00829039414026</v>
+        <v>14.5857535266445</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.28205755850999</v>
+        <v>14.97262408665298</v>
       </c>
       <c r="N15">
-        <v>20.94087648192311</v>
+        <v>12.9368862383736</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.73660919349406</v>
+        <v>16.42263130002701</v>
       </c>
       <c r="C16">
-        <v>4.947896491323374</v>
+        <v>8.41747861063314</v>
       </c>
       <c r="D16">
-        <v>9.113057326307176</v>
+        <v>7.437332440777185</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.81017172627408</v>
+        <v>30.7590040381246</v>
       </c>
       <c r="G16">
-        <v>43.82206997255083</v>
+        <v>37.88126397412288</v>
       </c>
       <c r="H16">
-        <v>17.86187092937706</v>
+        <v>11.89807151801053</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.19470411270018</v>
+        <v>7.14917042398093</v>
       </c>
       <c r="K16">
-        <v>11.89925929478918</v>
+        <v>14.11538967255072</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.22574188037614</v>
+        <v>14.60337072931874</v>
       </c>
       <c r="N16">
-        <v>20.98054435320801</v>
+        <v>13.08725130125622</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.63625928227547</v>
+        <v>16.06584048380034</v>
       </c>
       <c r="C17">
-        <v>4.878771687010283</v>
+        <v>8.247402964751497</v>
       </c>
       <c r="D17">
-        <v>9.096254574854621</v>
+        <v>7.320569501862509</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.79357066939191</v>
+        <v>30.46573318733459</v>
       </c>
       <c r="G17">
-        <v>43.78451258320656</v>
+        <v>37.47286187147587</v>
       </c>
       <c r="H17">
-        <v>17.8726925055564</v>
+        <v>11.86721443878526</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.19857820911404</v>
+        <v>7.115260488386221</v>
       </c>
       <c r="K17">
-        <v>11.83252006534356</v>
+        <v>13.82033545458801</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.19194733569627</v>
+        <v>14.37460396049789</v>
       </c>
       <c r="N17">
-        <v>21.00537143967357</v>
+        <v>13.1802685361719</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.5784460844425</v>
+        <v>15.8576636096779</v>
       </c>
       <c r="C18">
-        <v>4.838640309884638</v>
+        <v>8.148242369967324</v>
       </c>
       <c r="D18">
-        <v>9.086722215012177</v>
+        <v>7.25291577982704</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.78485105338267</v>
+        <v>30.29875126390787</v>
       </c>
       <c r="G18">
-        <v>43.76400756024834</v>
+        <v>37.24030748005561</v>
       </c>
       <c r="H18">
-        <v>17.87919989557611</v>
+        <v>11.85038878183158</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.20095791762603</v>
+        <v>7.09612045224362</v>
       </c>
       <c r="K18">
-        <v>11.79420093818686</v>
+        <v>13.64822042923901</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.17279092602348</v>
+        <v>14.24222575061273</v>
       </c>
       <c r="N18">
-        <v>21.01983248175818</v>
+        <v>13.23405776482725</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.55885742004119</v>
+        <v>15.78666781363579</v>
       </c>
       <c r="C19">
-        <v>4.824989779817998</v>
+        <v>8.114437731824461</v>
       </c>
       <c r="D19">
-        <v>9.083517617565391</v>
+        <v>7.229925849975874</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.78204123960829</v>
+        <v>30.24250692984623</v>
       </c>
       <c r="G19">
-        <v>43.75725362337363</v>
+        <v>37.16197322121217</v>
       </c>
       <c r="H19">
-        <v>17.8814517949005</v>
+        <v>11.84484823362088</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.20178966257948</v>
+        <v>7.08970215524011</v>
       </c>
       <c r="K19">
-        <v>11.78123959285378</v>
+        <v>13.58953002372</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.16635362939803</v>
+        <v>14.19727048409516</v>
       </c>
       <c r="N19">
-        <v>21.02475988512269</v>
+        <v>13.25231976277084</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.64695199618255</v>
+        <v>16.10412730811149</v>
       </c>
       <c r="C20">
-        <v>4.886169001221933</v>
+        <v>8.265646040935454</v>
       </c>
       <c r="D20">
-        <v>9.09802962858571</v>
+        <v>7.333050656727244</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.79525212874741</v>
+        <v>30.49677667804658</v>
       </c>
       <c r="G20">
-        <v>43.78839716986885</v>
+        <v>37.51609433149871</v>
       </c>
       <c r="H20">
-        <v>17.87151122643709</v>
+        <v>11.87040324753316</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.19815013440364</v>
+        <v>7.118832499613681</v>
       </c>
       <c r="K20">
-        <v>11.83961788150407</v>
+        <v>13.851993254231</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.19551580704807</v>
+        <v>14.39903975413639</v>
       </c>
       <c r="N20">
-        <v>21.00270981151235</v>
+        <v>13.17033696093515</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.94165262727091</v>
+        <v>17.13555026107785</v>
       </c>
       <c r="C21">
-        <v>5.087182495673916</v>
+        <v>8.757769858474845</v>
       </c>
       <c r="D21">
-        <v>9.148351621072399</v>
+        <v>7.673527653324502</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.84953075910742</v>
+        <v>31.3713319377556</v>
       </c>
       <c r="G21">
-        <v>43.90611750125771</v>
+        <v>38.73384623595</v>
       </c>
       <c r="H21">
-        <v>17.84149579536826</v>
+        <v>11.96744367616213</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.187730429873</v>
+        <v>7.221081309893669</v>
       </c>
       <c r="K21">
-        <v>12.03647509345214</v>
+        <v>14.70519782389899</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.29682632968625</v>
+        <v>15.067245568802</v>
       </c>
       <c r="N21">
-        <v>20.930786920718</v>
+        <v>12.89830076845105</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.13295144384674</v>
+        <v>17.78380956376656</v>
       </c>
       <c r="C22">
-        <v>5.214980791044292</v>
+        <v>9.067697848396595</v>
       </c>
       <c r="D22">
-        <v>9.182370242328554</v>
+        <v>7.891368612074297</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.89234926678717</v>
+        <v>31.95786270285648</v>
       </c>
       <c r="G22">
-        <v>43.99274498430439</v>
+        <v>39.55035974298311</v>
       </c>
       <c r="H22">
-        <v>17.8244029335123</v>
+        <v>12.03955704696871</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.18226693153582</v>
+        <v>7.29122534200857</v>
       </c>
       <c r="K22">
-        <v>12.16545531415008</v>
+        <v>15.24177978200114</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.36544698093206</v>
+        <v>15.4963428808629</v>
       </c>
       <c r="N22">
-        <v>20.88538798036568</v>
+        <v>12.72299231231729</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.03099283567845</v>
+        <v>17.44015906190588</v>
       </c>
       <c r="C23">
-        <v>5.147111113012769</v>
+        <v>8.903343424237859</v>
       </c>
       <c r="D23">
-        <v>9.164112739989589</v>
+        <v>7.775542538719411</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.86882622446985</v>
+        <v>31.64345829106119</v>
       </c>
       <c r="G23">
-        <v>43.94562779142944</v>
+        <v>39.11269212417695</v>
       </c>
       <c r="H23">
-        <v>17.83329464679242</v>
+        <v>12.00025022123973</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.18505982126428</v>
+        <v>7.253480724834304</v>
       </c>
       <c r="K23">
-        <v>12.09659995519034</v>
+        <v>14.95730030392586</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.32860728443724</v>
+        <v>15.26804322261596</v>
       </c>
       <c r="N23">
-        <v>20.90947152963578</v>
+        <v>12.81633432937404</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.64211819091185</v>
+        <v>16.08682735022713</v>
       </c>
       <c r="C24">
-        <v>4.882825889134891</v>
+        <v>8.257402652508866</v>
       </c>
       <c r="D24">
-        <v>9.097226728318656</v>
+        <v>7.327409559056214</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.79448937210628</v>
+        <v>30.48273685717351</v>
       </c>
       <c r="G24">
-        <v>43.78663756072576</v>
+        <v>37.49654195148211</v>
       </c>
       <c r="H24">
-        <v>17.87204439209436</v>
+        <v>11.86895874393912</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.19834319212312</v>
+        <v>7.11721648769216</v>
       </c>
       <c r="K24">
-        <v>11.83640879948017</v>
+        <v>13.83768850579308</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.19390165119742</v>
+        <v>14.38799499547549</v>
       </c>
       <c r="N24">
-        <v>21.00391254907019</v>
+        <v>13.17482605214718</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.21934042520073</v>
+        <v>14.51358458789008</v>
       </c>
       <c r="C25">
-        <v>4.583708991178358</v>
+        <v>7.50942915954783</v>
       </c>
       <c r="D25">
-        <v>9.030155592565457</v>
+        <v>6.825365791080933</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.74600420609866</v>
+        <v>29.2958473796558</v>
       </c>
       <c r="G25">
-        <v>43.65710512554944</v>
+        <v>35.84326100950797</v>
       </c>
       <c r="H25">
-        <v>17.92466342641598</v>
+        <v>11.76233108219137</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.21846162918806</v>
+        <v>6.98410664044992</v>
       </c>
       <c r="K25">
-        <v>11.5585010029925</v>
+        <v>12.53775813877113</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.05940540505073</v>
+        <v>13.40871969931807</v>
       </c>
       <c r="N25">
-        <v>21.11271272834911</v>
+        <v>13.57259458211312</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.25479878910839</v>
+        <v>21.49103607912805</v>
       </c>
       <c r="C2">
-        <v>6.913685880988759</v>
+        <v>16.08205913257978</v>
       </c>
       <c r="D2">
-        <v>6.441669861955098</v>
+        <v>5.046667855805342</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.47891016704612</v>
+        <v>15.29382011690553</v>
       </c>
       <c r="G2">
-        <v>34.70486258002936</v>
+        <v>17.81742206126836</v>
       </c>
       <c r="H2">
-        <v>11.71133207792885</v>
+        <v>2.194544585603499</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.488580862070501</v>
       </c>
       <c r="J2">
-        <v>6.897581019545202</v>
+        <v>7.742804791223859</v>
       </c>
       <c r="K2">
-        <v>11.49920334738558</v>
+        <v>12.61806986220462</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.66570091013318</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.87556009014293</v>
+        <v>7.377337566751933</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.80233546686691</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.11956824899597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.33773007306603</v>
+        <v>20.10799738228367</v>
       </c>
       <c r="C3">
-        <v>6.481532014154371</v>
+        <v>15.50776598430671</v>
       </c>
       <c r="D3">
-        <v>6.174235732967536</v>
+        <v>4.8180139995985</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.96125018330325</v>
+        <v>14.99105233078492</v>
       </c>
       <c r="G3">
-        <v>33.98331983497184</v>
+        <v>17.45890684779859</v>
       </c>
       <c r="H3">
-        <v>11.6926361027277</v>
+        <v>2.36964079142126</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.600264171319112</v>
       </c>
       <c r="J3">
-        <v>6.84586676806149</v>
+        <v>7.788199530803351</v>
       </c>
       <c r="K3">
-        <v>10.74366362978184</v>
+        <v>12.85007654806895</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.15105041348772</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.08747351062749</v>
+        <v>7.232746511325406</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.1458509773154</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.10744005162104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.74266817401422</v>
+        <v>19.20730705891523</v>
       </c>
       <c r="C4">
-        <v>6.202116248415861</v>
+        <v>15.14611928770924</v>
       </c>
       <c r="D4">
-        <v>6.006948265358711</v>
+        <v>4.671892094719747</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.66125417331659</v>
+        <v>14.81258597577725</v>
       </c>
       <c r="G4">
-        <v>33.56510044085512</v>
+        <v>17.25050468939842</v>
       </c>
       <c r="H4">
-        <v>11.6885543183293</v>
+        <v>2.480935666367914</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.693255729406452</v>
       </c>
       <c r="J4">
-        <v>6.817445032948356</v>
+        <v>7.819635154675058</v>
       </c>
       <c r="K4">
-        <v>10.254001687446</v>
+        <v>12.99717816813909</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.83066771455143</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.22093927311209</v>
+        <v>7.142396586848069</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.72404778644924</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.10779280403009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51588307163057</v>
+        <v>18.8271607909946</v>
       </c>
       <c r="C5">
-        <v>6.084712920101636</v>
+        <v>15.00553983987112</v>
       </c>
       <c r="D5">
-        <v>5.93810099830455</v>
+        <v>4.612570587870687</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.54349947570722</v>
+        <v>14.73425825158828</v>
       </c>
       <c r="G5">
-        <v>33.40092482843337</v>
+        <v>17.1549699880308</v>
       </c>
       <c r="H5">
-        <v>11.68868787956053</v>
+        <v>2.52749535119684</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.73514601231873</v>
       </c>
       <c r="J5">
-        <v>6.806687459997733</v>
+        <v>7.831276794678637</v>
       </c>
       <c r="K5">
-        <v>10.04795238561739</v>
+        <v>13.05430735989162</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.69919497960792</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.27618422805041</v>
+        <v>7.104998590348434</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.5476140651003</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.10451648216784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.47892677861191</v>
+        <v>18.76307252511149</v>
       </c>
       <c r="C6">
-        <v>6.065004552096199</v>
+        <v>14.99302945609453</v>
       </c>
       <c r="D6">
-        <v>5.926631233149766</v>
+        <v>4.604625292541885</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.52421793377628</v>
+        <v>14.71215788738778</v>
       </c>
       <c r="G6">
-        <v>33.37404121031425</v>
+        <v>17.12265820876324</v>
       </c>
       <c r="H6">
-        <v>11.68881674064228</v>
+        <v>2.535580119039885</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.746004459195184</v>
       </c>
       <c r="J6">
-        <v>6.804950570132322</v>
+        <v>7.830770964561512</v>
       </c>
       <c r="K6">
-        <v>10.01334418629055</v>
+        <v>13.05901926910426</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.67731474483281</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.28540976044635</v>
+        <v>7.098511597978717</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.51807683559958</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.09758696216132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.73932146772389</v>
+        <v>19.20175039782749</v>
       </c>
       <c r="C7">
-        <v>6.200547231718369</v>
+        <v>15.17390194096519</v>
       </c>
       <c r="D7">
-        <v>6.006022366095345</v>
+        <v>4.676456641992434</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.65964788646559</v>
+        <v>14.78653741152253</v>
       </c>
       <c r="G7">
-        <v>33.56286099298419</v>
+        <v>17.20409102787207</v>
       </c>
       <c r="H7">
-        <v>11.68854892735497</v>
+        <v>2.482346090211874</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.703984664026114</v>
       </c>
       <c r="J7">
-        <v>6.817296632124505</v>
+        <v>7.812992621198175</v>
       </c>
       <c r="K7">
-        <v>10.25124922267822</v>
+        <v>12.98470908541301</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.82889806390905</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.22168083887081</v>
+        <v>7.141216876880173</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.72176337951578</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.0900233487662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.94519434790113</v>
+        <v>21.0242731460576</v>
       </c>
       <c r="C8">
-        <v>6.767597141913795</v>
+        <v>15.92407194962999</v>
       </c>
       <c r="D8">
-        <v>6.35015373160471</v>
+        <v>4.9758116023612</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.29672446218085</v>
+        <v>15.1557499165352</v>
       </c>
       <c r="G8">
-        <v>34.45093860465716</v>
+        <v>17.6333059132218</v>
       </c>
       <c r="H8">
-        <v>11.70331220645824</v>
+        <v>2.255097120734919</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.517659496110459</v>
       </c>
       <c r="J8">
-        <v>6.8790509822548</v>
+        <v>7.748738916798162</v>
       </c>
       <c r="K8">
-        <v>11.2440186778948</v>
+        <v>12.67957807576952</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.48926594354573</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.94794107702008</v>
+        <v>7.327017650464616</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.5800073502679</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.09045953152538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05894838550972</v>
+        <v>24.19124116128174</v>
       </c>
       <c r="C9">
-        <v>7.768321986336947</v>
+        <v>17.2678786067234</v>
       </c>
       <c r="D9">
-        <v>6.996816278600231</v>
+        <v>5.506964039980124</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.68687169410696</v>
+        <v>15.97895467549149</v>
       </c>
       <c r="G9">
-        <v>36.3880229266124</v>
+        <v>18.64364782603651</v>
       </c>
       <c r="H9">
-        <v>11.79380289817824</v>
+        <v>1.837669422719237</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.778999946724386</v>
       </c>
       <c r="J9">
-        <v>7.027130824315734</v>
+        <v>7.664411618934734</v>
       </c>
       <c r="K9">
-        <v>12.98815871301299</v>
+        <v>12.14248030055401</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.74230161508723</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.43707686557376</v>
+        <v>7.678919232221731</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.10969168738164</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.18755627421594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.46294423836372</v>
+        <v>26.29451511155715</v>
       </c>
       <c r="C10">
-        <v>8.436704836288241</v>
+        <v>18.34449367549905</v>
       </c>
       <c r="D10">
-        <v>7.45058781349411</v>
+        <v>5.891264971766484</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.79269790190979</v>
+        <v>16.49544436821502</v>
       </c>
       <c r="G10">
-        <v>37.92818256094169</v>
+        <v>19.22486933012266</v>
       </c>
       <c r="H10">
-        <v>11.90171914684734</v>
+        <v>1.582153194917771</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.012607488417979</v>
       </c>
       <c r="J10">
-        <v>7.153089373316759</v>
+        <v>7.586622654391838</v>
       </c>
       <c r="K10">
-        <v>14.14873248917441</v>
+        <v>11.70118250950383</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.62936455563261</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.0766761389766</v>
+        <v>7.806502022050683</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.03924097542254</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.21146679994329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.07022971643137</v>
+        <v>27.4001005251028</v>
       </c>
       <c r="C11">
-        <v>8.726566515001384</v>
+        <v>20.00740613028108</v>
       </c>
       <c r="D11">
-        <v>7.651734197403486</v>
+        <v>6.256986360577657</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.31378781636473</v>
+        <v>15.77576630405989</v>
       </c>
       <c r="G11">
-        <v>38.65373112070126</v>
+        <v>17.7782321315594</v>
       </c>
       <c r="H11">
-        <v>11.96065649803487</v>
+        <v>2.66829140711556</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.095378435125052</v>
       </c>
       <c r="J11">
-        <v>7.214263527299142</v>
+        <v>7.265121611162495</v>
       </c>
       <c r="K11">
-        <v>14.6511440127691</v>
+        <v>10.98125846993281</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.02438352517687</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.9157823791175</v>
+        <v>6.924116320902235</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.61552164668366</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.49303957401503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.29575661347295</v>
+        <v>27.91098261369808</v>
       </c>
       <c r="C12">
-        <v>8.834320106029947</v>
+        <v>21.20144684810144</v>
       </c>
       <c r="D12">
-        <v>7.727103208994135</v>
+        <v>6.48436215553287</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.51368062039187</v>
+        <v>15.07666830018451</v>
       </c>
       <c r="G12">
-        <v>38.93202346885218</v>
+        <v>16.46856445479817</v>
       </c>
       <c r="H12">
-        <v>11.98446033379416</v>
+        <v>4.090190741490372</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.116705941531917</v>
       </c>
       <c r="J12">
-        <v>7.237997251248752</v>
+        <v>7.018758438607301</v>
       </c>
       <c r="K12">
-        <v>14.83778206147258</v>
+        <v>10.56096250542557</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.17266632799682</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.8552822155905</v>
+        <v>6.335410823475794</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.05620784753991</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.8995588846941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.2473815273977</v>
+        <v>28.01176217862644</v>
       </c>
       <c r="C13">
-        <v>8.811202353467742</v>
+        <v>22.16245605466444</v>
       </c>
       <c r="D13">
-        <v>7.710907327273326</v>
+        <v>6.631015493171087</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.47051629319984</v>
+        <v>14.29942244036652</v>
       </c>
       <c r="G13">
-        <v>38.87193116947891</v>
+        <v>15.09111125976358</v>
       </c>
       <c r="H13">
-        <v>11.9792665631797</v>
+        <v>5.531951766134913</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.096200642542251</v>
       </c>
       <c r="J13">
-        <v>7.232860308317515</v>
+        <v>6.805424710836773</v>
       </c>
       <c r="K13">
-        <v>14.79774598880842</v>
+        <v>10.33646037452648</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.14078993894606</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.86829321088424</v>
+        <v>5.983323055899723</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.34317829115915</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.33719426276869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.08887246210142</v>
+        <v>27.89847637716166</v>
       </c>
       <c r="C14">
-        <v>8.735471581206115</v>
+        <v>22.7503189936598</v>
       </c>
       <c r="D14">
-        <v>7.657951107066614</v>
+        <v>6.700402053157865</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.3301817921442</v>
+        <v>13.70813732184261</v>
       </c>
       <c r="G14">
-        <v>38.67655558236149</v>
+        <v>14.07618366169885</v>
       </c>
       <c r="H14">
-        <v>11.96258467926044</v>
+        <v>6.547894421432224</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.064265785631435</v>
       </c>
       <c r="J14">
-        <v>7.216204658457967</v>
+        <v>6.671342427317262</v>
       </c>
       <c r="K14">
-        <v>14.66657092336809</v>
+        <v>10.28245806073448</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.03660932191145</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.91079650727811</v>
+        <v>5.898466576078206</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.76522639609148</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.956546028228994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.99120533214896</v>
+        <v>27.78217639945878</v>
       </c>
       <c r="C15">
-        <v>8.688823390688935</v>
+        <v>22.85143434589525</v>
       </c>
       <c r="D15">
-        <v>7.625408524225458</v>
+        <v>6.701699602032322</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.24455652647297</v>
+        <v>13.54021056132305</v>
       </c>
       <c r="G15">
-        <v>38.55734278803374</v>
+        <v>13.80179446471214</v>
       </c>
       <c r="H15">
-        <v>11.9525620877957</v>
+        <v>6.783640207501755</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.048369838675363</v>
       </c>
       <c r="J15">
-        <v>7.206076950671349</v>
+        <v>6.644181990882875</v>
       </c>
       <c r="K15">
-        <v>14.5857535266445</v>
+        <v>10.29974935490525</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.97262408665298</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.9368862383736</v>
+        <v>5.900183115875939</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.59078727169931</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.866649341737073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.42263130002701</v>
+        <v>26.91604600266123</v>
       </c>
       <c r="C16">
-        <v>8.41747861063314</v>
+        <v>22.27422387211898</v>
       </c>
       <c r="D16">
-        <v>7.437332440777185</v>
+        <v>6.525697510067315</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.7590040381246</v>
+        <v>13.42274958296106</v>
       </c>
       <c r="G16">
-        <v>37.88126397412288</v>
+        <v>13.7361330783524</v>
       </c>
       <c r="H16">
-        <v>11.89807151801053</v>
+        <v>6.578215757150664</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.954085665778725</v>
       </c>
       <c r="J16">
-        <v>7.14917042398093</v>
+        <v>6.717738890901534</v>
       </c>
       <c r="K16">
-        <v>14.11538967255072</v>
+        <v>10.53207653886272</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.60337072931874</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.08725130125622</v>
+        <v>5.902830532076023</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.30252921632439</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.955175570741924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.06584048380034</v>
+        <v>26.29871825726323</v>
       </c>
       <c r="C17">
-        <v>8.247402964751497</v>
+        <v>21.49641533708984</v>
       </c>
       <c r="D17">
-        <v>7.320569501862509</v>
+        <v>6.349456617059464</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.46573318733459</v>
+        <v>13.65772470798721</v>
       </c>
       <c r="G17">
-        <v>37.47286187147587</v>
+        <v>14.24242281835643</v>
       </c>
       <c r="H17">
-        <v>11.86721443878526</v>
+        <v>5.848976492837897</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.898902530734891</v>
       </c>
       <c r="J17">
-        <v>7.115260488386221</v>
+        <v>6.844418622929583</v>
       </c>
       <c r="K17">
-        <v>13.82033545458801</v>
+        <v>10.7306735809116</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.37460396049789</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.1802685361719</v>
+        <v>5.924139613873256</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.3996221650436</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.22452742422537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.8576636096779</v>
+        <v>25.83936066204193</v>
       </c>
       <c r="C18">
-        <v>8.148242369967324</v>
+        <v>20.45301983021898</v>
       </c>
       <c r="D18">
-        <v>7.25291577982704</v>
+        <v>6.151959388377153</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.29875126390787</v>
+        <v>14.23378408809486</v>
       </c>
       <c r="G18">
-        <v>37.24030748005561</v>
+        <v>15.32003983979791</v>
       </c>
       <c r="H18">
-        <v>11.85038878183158</v>
+        <v>4.611298212901594</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.869625925273357</v>
       </c>
       <c r="J18">
-        <v>7.09612045224362</v>
+        <v>7.036871998576888</v>
       </c>
       <c r="K18">
-        <v>13.64822042923901</v>
+        <v>10.97231695755374</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.24222575061273</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.23405776482725</v>
+        <v>6.108736914778039</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.84120032420089</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.69276711802276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.78666781363579</v>
+        <v>25.54944255076364</v>
       </c>
       <c r="C19">
-        <v>8.114437731824461</v>
+        <v>19.37061672167209</v>
       </c>
       <c r="D19">
-        <v>7.229925849975874</v>
+        <v>5.965626739307975</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.24250692984623</v>
+        <v>14.99097225607873</v>
       </c>
       <c r="G19">
-        <v>37.16197322121217</v>
+        <v>16.69219834073798</v>
       </c>
       <c r="H19">
-        <v>11.84484823362088</v>
+        <v>3.153176241592046</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.87577615149612</v>
       </c>
       <c r="J19">
-        <v>7.08970215524011</v>
+        <v>7.260411753717378</v>
       </c>
       <c r="K19">
-        <v>13.58953002372</v>
+        <v>11.28343954980718</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.19727048409516</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.25231976277084</v>
+        <v>6.599067668443066</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.51826923119153</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.26249014059128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.10412730811149</v>
+        <v>25.75900991281794</v>
       </c>
       <c r="C20">
-        <v>8.265646040935454</v>
+        <v>18.15487748616625</v>
       </c>
       <c r="D20">
-        <v>7.333050656727244</v>
+        <v>5.80781345442218</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.49677667804658</v>
+        <v>16.28310782701297</v>
       </c>
       <c r="G20">
-        <v>37.51609433149871</v>
+        <v>18.93419660588437</v>
       </c>
       <c r="H20">
-        <v>11.87040324753316</v>
+        <v>1.649096135592197</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.96265467603383</v>
       </c>
       <c r="J20">
-        <v>7.118832499613681</v>
+        <v>7.583386912402417</v>
       </c>
       <c r="K20">
-        <v>13.851993254231</v>
+        <v>11.77184989694777</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.39903975413639</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.17033696093515</v>
+        <v>7.766334668033132</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.79686094122884</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.14528590541741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.13555026107785</v>
+        <v>27.25927442246543</v>
       </c>
       <c r="C21">
-        <v>8.757769858474845</v>
+        <v>18.74381530363005</v>
       </c>
       <c r="D21">
-        <v>7.673527653324502</v>
+        <v>6.055133030619288</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.3713319377556</v>
+        <v>16.87111485242277</v>
       </c>
       <c r="G21">
-        <v>38.73384623595</v>
+        <v>19.72530736294981</v>
       </c>
       <c r="H21">
-        <v>11.96744367616213</v>
+        <v>1.709638910548718</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.141797619095366</v>
       </c>
       <c r="J21">
-        <v>7.221081309893669</v>
+        <v>7.585205896398435</v>
       </c>
       <c r="K21">
-        <v>14.70519782389899</v>
+        <v>11.54859862490294</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.067245568802</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.89830076845105</v>
+        <v>8.049597303425974</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.62760742853188</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.31795757001067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.78380956376656</v>
+        <v>28.20814069821472</v>
       </c>
       <c r="C22">
-        <v>9.067697848396595</v>
+        <v>19.15178396119727</v>
       </c>
       <c r="D22">
-        <v>7.891368612074297</v>
+        <v>6.216825075326326</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.95786270285648</v>
+        <v>17.23176532259831</v>
       </c>
       <c r="G22">
-        <v>39.55035974298311</v>
+        <v>20.20007767412534</v>
       </c>
       <c r="H22">
-        <v>12.03955704696871</v>
+        <v>1.84611671720277</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.251238797337495</v>
       </c>
       <c r="J22">
-        <v>7.29122534200857</v>
+        <v>7.58273742630727</v>
       </c>
       <c r="K22">
-        <v>15.24177978200114</v>
+        <v>11.39286832679886</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.4963428808629</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.72299231231729</v>
+        <v>8.170927345049881</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.10222662202073</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.41923871759544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.44015906190588</v>
+        <v>27.70611676497997</v>
       </c>
       <c r="C23">
-        <v>8.903343424237859</v>
+        <v>18.90485697717334</v>
       </c>
       <c r="D23">
-        <v>7.775542538719411</v>
+        <v>6.125920592247711</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.64345829106119</v>
+        <v>17.06427218240751</v>
       </c>
       <c r="G23">
-        <v>39.11269212417695</v>
+        <v>19.99141765937518</v>
       </c>
       <c r="H23">
-        <v>12.00025022123973</v>
+        <v>1.774164050939792</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.18890741310769</v>
       </c>
       <c r="J23">
-        <v>7.253480724834304</v>
+        <v>7.591529458177282</v>
       </c>
       <c r="K23">
-        <v>14.95730030392586</v>
+        <v>11.49138531637965</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.26804322261596</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.81633432937404</v>
+        <v>8.106869241486494</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.85064055990704</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.38416039325717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.08682735022713</v>
+        <v>25.71548354034589</v>
       </c>
       <c r="C24">
-        <v>8.257402652508866</v>
+        <v>17.9943780592416</v>
       </c>
       <c r="D24">
-        <v>7.327409559056214</v>
+        <v>5.777851390032849</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.48273685717351</v>
+        <v>16.39963740995228</v>
       </c>
       <c r="G24">
-        <v>37.49654195148211</v>
+        <v>19.14805386484581</v>
       </c>
       <c r="H24">
-        <v>11.86895874393912</v>
+        <v>1.627626881473828</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.955412445314606</v>
       </c>
       <c r="J24">
-        <v>7.11721648769216</v>
+        <v>7.621187344092156</v>
       </c>
       <c r="K24">
-        <v>13.83768850579308</v>
+        <v>11.84978476889063</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.38799499547549</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.17482605214718</v>
+        <v>7.859368697547316</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.86014617111706</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.23885472923948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.51358458789008</v>
+        <v>23.37729662504701</v>
       </c>
       <c r="C25">
-        <v>7.50942915954783</v>
+        <v>16.96291962459205</v>
       </c>
       <c r="D25">
-        <v>6.825365791080933</v>
+        <v>5.377152491160341</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.2958473796558</v>
+        <v>15.70860593676848</v>
       </c>
       <c r="G25">
-        <v>35.84326100950797</v>
+        <v>18.28512419202943</v>
       </c>
       <c r="H25">
-        <v>11.76233108219137</v>
+        <v>1.948695532117491</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.696196719972081</v>
       </c>
       <c r="J25">
-        <v>6.98410664044992</v>
+        <v>7.671691737186567</v>
       </c>
       <c r="K25">
-        <v>12.53775813877113</v>
+        <v>12.25969191470811</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.40871969931807</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.57259458211312</v>
+        <v>7.584350748324967</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.71289652645085</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.1226031410601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.49103607912805</v>
+        <v>21.51802592970089</v>
       </c>
       <c r="C2">
-        <v>16.08205913257978</v>
+        <v>16.04631580920668</v>
       </c>
       <c r="D2">
-        <v>5.046667855805342</v>
+        <v>5.080919580001482</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.29382011690553</v>
+        <v>15.08422687406839</v>
       </c>
       <c r="G2">
-        <v>17.81742206126836</v>
+        <v>16.70068777561674</v>
       </c>
       <c r="H2">
-        <v>2.194544585603499</v>
+        <v>2.14944405447088</v>
       </c>
       <c r="I2">
-        <v>2.488580862070501</v>
+        <v>2.544682408686525</v>
       </c>
       <c r="J2">
-        <v>7.742804791223859</v>
+        <v>8.287927879896115</v>
       </c>
       <c r="K2">
-        <v>12.61806986220462</v>
+        <v>12.37501258047926</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.80390515367296</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.464248578846393</v>
       </c>
       <c r="N2">
-        <v>7.377337566751933</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.80233546686691</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.415072312500619</v>
       </c>
       <c r="Q2">
-        <v>12.11956824899597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.79940314110409</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.95799319825154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.10799738228367</v>
+        <v>20.14254453389454</v>
       </c>
       <c r="C3">
-        <v>15.50776598430671</v>
+        <v>15.38017009926867</v>
       </c>
       <c r="D3">
-        <v>4.8180139995985</v>
+        <v>4.836463969790264</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.99105233078492</v>
+        <v>14.81826937410449</v>
       </c>
       <c r="G3">
-        <v>17.45890684779859</v>
+        <v>16.39302280671174</v>
       </c>
       <c r="H3">
-        <v>2.36964079142126</v>
+        <v>2.313087532586236</v>
       </c>
       <c r="I3">
-        <v>2.600264171319112</v>
+        <v>2.53269996035184</v>
       </c>
       <c r="J3">
-        <v>7.788199530803351</v>
+        <v>8.310949009343174</v>
       </c>
       <c r="K3">
-        <v>12.85007654806895</v>
+        <v>12.60967737782341</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.00512316145295</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.656811248411381</v>
       </c>
       <c r="N3">
-        <v>7.232746511325406</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.1458509773154</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.280915505972631</v>
       </c>
       <c r="Q3">
-        <v>12.10744005162104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.1410950382407</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.96729661548723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.20730705891523</v>
+        <v>19.24692886188345</v>
       </c>
       <c r="C4">
-        <v>15.14611928770924</v>
+        <v>14.96032344325937</v>
       </c>
       <c r="D4">
-        <v>4.671892094719747</v>
+        <v>4.680174710532508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.81258597577725</v>
+        <v>14.66106245731138</v>
       </c>
       <c r="G4">
-        <v>17.25050468939842</v>
+        <v>16.2170831749932</v>
       </c>
       <c r="H4">
-        <v>2.480935666367914</v>
+        <v>2.417126619960064</v>
       </c>
       <c r="I4">
-        <v>2.693255729406452</v>
+        <v>2.61644201081717</v>
       </c>
       <c r="J4">
-        <v>7.819635154675058</v>
+        <v>8.326668280189789</v>
       </c>
       <c r="K4">
-        <v>12.99717816813909</v>
+        <v>12.75740584515696</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.13444653070501</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.792585819544774</v>
       </c>
       <c r="N4">
-        <v>7.142396586848069</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.72404778644924</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.197366117530068</v>
       </c>
       <c r="Q4">
-        <v>12.10779280403009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.7178546747296</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.97937262036042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.8271607909946</v>
+        <v>18.86897036113984</v>
       </c>
       <c r="C5">
-        <v>15.00553983987112</v>
+        <v>14.79579345179905</v>
       </c>
       <c r="D5">
-        <v>4.612570587870687</v>
+        <v>4.616574589060952</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.73425825158828</v>
+        <v>14.5912135137603</v>
       </c>
       <c r="G5">
-        <v>17.1549699880308</v>
+        <v>16.13490952945859</v>
       </c>
       <c r="H5">
-        <v>2.52749535119684</v>
+        <v>2.460670655809293</v>
       </c>
       <c r="I5">
-        <v>2.73514601231873</v>
+        <v>2.655072281815511</v>
       </c>
       <c r="J5">
-        <v>7.831276794678637</v>
+        <v>8.331522760614668</v>
       </c>
       <c r="K5">
-        <v>13.05430735989162</v>
+        <v>12.8147300494299</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.1845186288624</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.850730562186116</v>
       </c>
       <c r="N5">
-        <v>7.104998590348434</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.5476140651003</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.162837812732126</v>
       </c>
       <c r="Q5">
-        <v>12.10451648216784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.54075361897974</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.98065887096539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.76307252511149</v>
+        <v>18.80524932734401</v>
       </c>
       <c r="C6">
-        <v>14.99302945609453</v>
+        <v>14.77947857259518</v>
       </c>
       <c r="D6">
-        <v>4.604625292541885</v>
+        <v>4.607881517743206</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.71215788738778</v>
+        <v>14.57072178128596</v>
       </c>
       <c r="G6">
-        <v>17.12265820876324</v>
+        <v>16.10469757597682</v>
       </c>
       <c r="H6">
-        <v>2.535580119039885</v>
+        <v>2.468249696984553</v>
       </c>
       <c r="I6">
-        <v>2.746004459195184</v>
+        <v>2.666087298816035</v>
       </c>
       <c r="J6">
-        <v>7.830770964561512</v>
+        <v>8.32998005580677</v>
       </c>
       <c r="K6">
-        <v>13.05901926910426</v>
+        <v>12.81968144501369</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.18796103485372</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.858882932311073</v>
       </c>
       <c r="N6">
-        <v>7.098511597978717</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.51807683559958</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.156833934420129</v>
       </c>
       <c r="Q6">
-        <v>12.09758696216132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.51110018046177</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.97464236829938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.20175039782749</v>
+        <v>19.24117289328929</v>
       </c>
       <c r="C7">
-        <v>15.17390194096519</v>
+        <v>14.98340013325156</v>
       </c>
       <c r="D7">
-        <v>4.676456641992434</v>
+        <v>4.687944028085542</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.78653741152253</v>
+        <v>14.62142643802577</v>
       </c>
       <c r="G7">
-        <v>17.20409102787207</v>
+        <v>16.25781731549656</v>
       </c>
       <c r="H7">
-        <v>2.482346090211874</v>
+        <v>2.418841072756421</v>
       </c>
       <c r="I7">
-        <v>2.703984664026114</v>
+        <v>2.629401998411515</v>
       </c>
       <c r="J7">
-        <v>7.812992621198175</v>
+        <v>8.28657164771862</v>
       </c>
       <c r="K7">
-        <v>12.98470908541301</v>
+        <v>12.74153150883492</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.11769578828392</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.786409419139368</v>
       </c>
       <c r="N7">
-        <v>7.141216876880173</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.72176337951578</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.195926293933591</v>
       </c>
       <c r="Q7">
-        <v>12.0900233487662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.71559417996865</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.95226718149175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.0242731460576</v>
+        <v>21.05312952079561</v>
       </c>
       <c r="C8">
-        <v>15.92407194962999</v>
+        <v>15.84224438677359</v>
       </c>
       <c r="D8">
-        <v>4.9758116023612</v>
+        <v>5.015200586988843</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.1557499165352</v>
+        <v>14.91354565275524</v>
       </c>
       <c r="G8">
-        <v>17.6333059132218</v>
+        <v>16.81794551324787</v>
       </c>
       <c r="H8">
-        <v>2.255097120734919</v>
+        <v>2.207157784347494</v>
       </c>
       <c r="I8">
-        <v>2.517659496110459</v>
+        <v>2.505188877399767</v>
       </c>
       <c r="J8">
-        <v>7.748738916798162</v>
+        <v>8.177149002606804</v>
       </c>
       <c r="K8">
-        <v>12.67957807576952</v>
+        <v>12.4255845940836</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.84442156180026</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.510077197968588</v>
       </c>
       <c r="N8">
-        <v>7.327017650464616</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.5800073502679</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.367369498459841</v>
       </c>
       <c r="Q8">
-        <v>12.09045953152538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.57658621997398</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.90465758213476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19124116128174</v>
+        <v>24.20310735909063</v>
       </c>
       <c r="C9">
-        <v>17.2678786067234</v>
+        <v>17.39982488343275</v>
       </c>
       <c r="D9">
-        <v>5.506964039980124</v>
+        <v>5.584906084680791</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.97895467549149</v>
+        <v>15.62803882919556</v>
       </c>
       <c r="G9">
-        <v>18.64364782603651</v>
+        <v>17.7715799374888</v>
       </c>
       <c r="H9">
-        <v>1.837669422719237</v>
+        <v>1.817295662055092</v>
       </c>
       <c r="I9">
-        <v>2.778999946724386</v>
+        <v>2.805814980763416</v>
       </c>
       <c r="J9">
-        <v>7.664411618934734</v>
+        <v>8.105964424282718</v>
       </c>
       <c r="K9">
-        <v>12.14248030055401</v>
+        <v>11.87146412675919</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.39020568059168</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.133871882980526</v>
       </c>
       <c r="N9">
-        <v>7.678919232221731</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.10969168738164</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.695362444557959</v>
       </c>
       <c r="Q9">
-        <v>12.18755627421594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.10907420980435</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.93118488327078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.29451511155715</v>
+        <v>26.29440753928912</v>
       </c>
       <c r="C10">
-        <v>18.34449367549905</v>
+        <v>18.58761164143642</v>
       </c>
       <c r="D10">
-        <v>5.891264971766484</v>
+        <v>6.008821357418458</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.49544436821502</v>
+        <v>15.99934951826595</v>
       </c>
       <c r="G10">
-        <v>19.22486933012266</v>
+        <v>18.79575169125278</v>
       </c>
       <c r="H10">
-        <v>1.582153194917771</v>
+        <v>1.582338407455665</v>
       </c>
       <c r="I10">
-        <v>3.012607488417979</v>
+        <v>3.015295460357802</v>
       </c>
       <c r="J10">
-        <v>7.586622654391838</v>
+        <v>7.850628607967288</v>
       </c>
       <c r="K10">
-        <v>11.70118250950383</v>
+        <v>11.40288020881849</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.03539225334803</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.881270300259025</v>
       </c>
       <c r="N10">
-        <v>7.806502022050683</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.03924097542254</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.806353721300397</v>
       </c>
       <c r="Q10">
-        <v>12.21146679994329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.03924241361134</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.85167602299657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.4001005251028</v>
+        <v>27.39463668781598</v>
       </c>
       <c r="C11">
-        <v>20.00740613028108</v>
+        <v>20.15821719102521</v>
       </c>
       <c r="D11">
-        <v>6.256986360577657</v>
+        <v>6.400184237087718</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15.77576630405989</v>
+        <v>15.19788423942301</v>
       </c>
       <c r="G11">
-        <v>17.7782321315594</v>
+        <v>18.50224759704133</v>
       </c>
       <c r="H11">
-        <v>2.66829140711556</v>
+        <v>2.674000116559027</v>
       </c>
       <c r="I11">
-        <v>3.095378435125052</v>
+        <v>3.088949777760576</v>
       </c>
       <c r="J11">
-        <v>7.265121611162495</v>
+        <v>7.267758141741429</v>
       </c>
       <c r="K11">
-        <v>10.98125846993281</v>
+        <v>10.76010282703995</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.642973990544057</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.328431552005149</v>
       </c>
       <c r="N11">
-        <v>6.924116320902235</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.61552164668366</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.915828947009698</v>
       </c>
       <c r="Q11">
-        <v>11.49303957401503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.61568357830504</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.08830776520562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.91098261369808</v>
+        <v>27.90372148422043</v>
       </c>
       <c r="C12">
-        <v>21.20144684810144</v>
+        <v>21.25139233431184</v>
       </c>
       <c r="D12">
-        <v>6.48436215553287</v>
+        <v>6.63085568000126</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>15.07666830018451</v>
+        <v>14.50727220998419</v>
       </c>
       <c r="G12">
-        <v>16.46856445479817</v>
+        <v>17.79549652978742</v>
       </c>
       <c r="H12">
-        <v>4.090190741490372</v>
+        <v>4.095279703599278</v>
       </c>
       <c r="I12">
-        <v>3.116705941531917</v>
+        <v>3.10635020881509</v>
       </c>
       <c r="J12">
-        <v>7.018758438607301</v>
+        <v>6.984834469488359</v>
       </c>
       <c r="K12">
-        <v>10.56096250542557</v>
+        <v>10.42231994250715</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.47166667861762</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.98144458557019</v>
       </c>
       <c r="N12">
-        <v>6.335410823475794</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.05620784753991</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.323630678100481</v>
       </c>
       <c r="Q12">
-        <v>10.8995588846941</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.05658402680755</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.51636754216099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.01176217862644</v>
+        <v>28.00555619901516</v>
       </c>
       <c r="C13">
-        <v>22.16245605466444</v>
+        <v>22.11278079851066</v>
       </c>
       <c r="D13">
-        <v>6.631015493171087</v>
+        <v>6.755725563778384</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>14.29942244036652</v>
+        <v>13.84342937209617</v>
       </c>
       <c r="G13">
-        <v>15.09111125976358</v>
+        <v>16.42813495919278</v>
       </c>
       <c r="H13">
-        <v>5.531951766134913</v>
+        <v>5.535287341619952</v>
       </c>
       <c r="I13">
-        <v>3.096200642542251</v>
+        <v>3.087866487346415</v>
       </c>
       <c r="J13">
-        <v>6.805424710836773</v>
+        <v>6.899469178144073</v>
       </c>
       <c r="K13">
-        <v>10.33646037452648</v>
+        <v>10.27613336632005</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.413060926095175</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.785527003621067</v>
       </c>
       <c r="N13">
-        <v>5.983323055899723</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.34317829115915</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.97286808600528</v>
       </c>
       <c r="Q13">
-        <v>10.33719426276869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.34368359270878</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.04990077985607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.89847637716166</v>
+        <v>27.8942496710953</v>
       </c>
       <c r="C14">
-        <v>22.7503189936598</v>
+        <v>22.63030086842339</v>
       </c>
       <c r="D14">
-        <v>6.700402053157865</v>
+        <v>6.798188076180152</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>13.70813732184261</v>
+        <v>13.37781501057813</v>
       </c>
       <c r="G14">
-        <v>14.07618366169885</v>
+        <v>15.15603921243533</v>
       </c>
       <c r="H14">
-        <v>6.547894421432224</v>
+        <v>6.549868290006184</v>
       </c>
       <c r="I14">
-        <v>3.064265785631435</v>
+        <v>3.060306799014216</v>
       </c>
       <c r="J14">
-        <v>6.671342427317262</v>
+        <v>6.908501388072461</v>
       </c>
       <c r="K14">
-        <v>10.28245806073448</v>
+        <v>10.2615235077382</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.413765870324378</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.733559898420389</v>
       </c>
       <c r="N14">
-        <v>5.898466576078206</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>12.76522639609148</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.891332106224472</v>
       </c>
       <c r="Q14">
-        <v>9.956546028228994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.76567692815476</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.765557867626962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.78217639945878</v>
+        <v>27.77905869716377</v>
       </c>
       <c r="C15">
-        <v>22.85143434589525</v>
+        <v>22.71523506126587</v>
       </c>
       <c r="D15">
-        <v>6.701699602032322</v>
+        <v>6.787969310889904</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>13.54021056132305</v>
+        <v>13.26007510129498</v>
       </c>
       <c r="G15">
-        <v>13.80179446471214</v>
+        <v>14.70655852890306</v>
       </c>
       <c r="H15">
-        <v>6.783640207501755</v>
+        <v>6.78506277705679</v>
       </c>
       <c r="I15">
-        <v>3.048369838675363</v>
+        <v>3.047296413813829</v>
       </c>
       <c r="J15">
-        <v>6.644181990882875</v>
+        <v>6.939993132188214</v>
       </c>
       <c r="K15">
-        <v>10.29974935490525</v>
+        <v>10.28440765035029</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.423595045049868</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.748008349715226</v>
       </c>
       <c r="N15">
-        <v>5.900183115875939</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>12.59078727169931</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.894936092080473</v>
       </c>
       <c r="Q15">
-        <v>9.866649341737073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.59114442284454</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.711328708284976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.91604600266123</v>
+        <v>26.91893623179456</v>
       </c>
       <c r="C16">
-        <v>22.27422387211898</v>
+        <v>22.15013162897366</v>
       </c>
       <c r="D16">
-        <v>6.525697510067315</v>
+        <v>6.571682766130531</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>13.42274958296106</v>
+        <v>13.29981128490799</v>
       </c>
       <c r="G16">
-        <v>13.7361330783524</v>
+        <v>13.72495558638214</v>
       </c>
       <c r="H16">
-        <v>6.578215757150664</v>
+        <v>6.576770833861007</v>
       </c>
       <c r="I16">
-        <v>2.954085665778725</v>
+        <v>2.966319678204961</v>
       </c>
       <c r="J16">
-        <v>6.717738890901534</v>
+        <v>7.233741556140977</v>
       </c>
       <c r="K16">
-        <v>10.53207653886272</v>
+        <v>10.49913497709332</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.501191147634096</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.960712038373964</v>
       </c>
       <c r="N16">
-        <v>5.902830532076023</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.30252921632439</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.90770127414122</v>
       </c>
       <c r="Q16">
-        <v>9.955175570741924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.30215509773026</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.899105538147074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.29871825726323</v>
+        <v>26.305011381544</v>
       </c>
       <c r="C17">
-        <v>21.49641533708984</v>
+        <v>21.4134393739066</v>
       </c>
       <c r="D17">
-        <v>6.349456617059464</v>
+        <v>6.38417101985293</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>13.65772470798721</v>
+        <v>13.56809304316695</v>
       </c>
       <c r="G17">
-        <v>14.24242281835643</v>
+        <v>13.79768842853867</v>
       </c>
       <c r="H17">
-        <v>5.848976492837897</v>
+        <v>5.845329693214553</v>
       </c>
       <c r="I17">
-        <v>2.898902530734891</v>
+        <v>2.918705862443161</v>
       </c>
       <c r="J17">
-        <v>6.844418622929583</v>
+        <v>7.446987295696282</v>
       </c>
       <c r="K17">
-        <v>10.7306735809116</v>
+        <v>10.67646273001713</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.581245074980776</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.134908550683353</v>
       </c>
       <c r="N17">
-        <v>5.924139613873256</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.3996221650436</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.934783988514878</v>
       </c>
       <c r="Q17">
-        <v>10.22452742422537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.39882818741179</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.18379611180076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.83936066204193</v>
+        <v>25.84730905311254</v>
       </c>
       <c r="C18">
-        <v>20.45301983021898</v>
+        <v>20.44640592049082</v>
       </c>
       <c r="D18">
-        <v>6.151959388377153</v>
+        <v>6.192712246846376</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>14.23378408809486</v>
+        <v>14.10372654985847</v>
       </c>
       <c r="G18">
-        <v>15.32003983979791</v>
+        <v>14.62265835878219</v>
       </c>
       <c r="H18">
-        <v>4.611298212901594</v>
+        <v>4.605457283394333</v>
       </c>
       <c r="I18">
-        <v>2.869625925273357</v>
+        <v>2.891919080328319</v>
       </c>
       <c r="J18">
-        <v>7.036871998576888</v>
+        <v>7.653096978562127</v>
       </c>
       <c r="K18">
-        <v>10.97231695755374</v>
+        <v>10.8836607950061</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.702348978353013</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.326071178996277</v>
       </c>
       <c r="N18">
-        <v>6.108736914778039</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.84120032420089</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.121958453281824</v>
       </c>
       <c r="Q18">
-        <v>10.69276711802276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.84035222459562</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.61706846016881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.54944255076364</v>
+        <v>25.55742959372218</v>
       </c>
       <c r="C19">
-        <v>19.37061672167209</v>
+        <v>19.45862081256255</v>
       </c>
       <c r="D19">
-        <v>5.965626739307975</v>
+        <v>6.022246206749476</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>14.99097225607873</v>
+        <v>14.77775535453353</v>
       </c>
       <c r="G19">
-        <v>16.69219834073798</v>
+        <v>15.82581770886127</v>
       </c>
       <c r="H19">
-        <v>3.153176241592046</v>
+        <v>3.14489687595543</v>
       </c>
       <c r="I19">
-        <v>2.87577615149612</v>
+        <v>2.898555913526039</v>
       </c>
       <c r="J19">
-        <v>7.260411753717378</v>
+        <v>7.848849394450961</v>
       </c>
       <c r="K19">
-        <v>11.28343954980718</v>
+        <v>11.13910646324081</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.870774788132387</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.555559072423287</v>
       </c>
       <c r="N19">
-        <v>6.599067668443066</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.51826923119153</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.6116135959501</v>
       </c>
       <c r="Q19">
-        <v>11.26249014059128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.51765407746372</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.12089084198108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.75900991281794</v>
+        <v>25.76255334425368</v>
       </c>
       <c r="C20">
-        <v>18.15487748616625</v>
+        <v>18.38511072573392</v>
       </c>
       <c r="D20">
-        <v>5.80781345442218</v>
+        <v>5.904768318244225</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.28310782701297</v>
+        <v>15.87442523915346</v>
       </c>
       <c r="G20">
-        <v>18.93419660588437</v>
+        <v>18.10712063042585</v>
       </c>
       <c r="H20">
-        <v>1.649096135592197</v>
+        <v>1.642982966605286</v>
       </c>
       <c r="I20">
-        <v>2.96265467603383</v>
+        <v>2.976173523670361</v>
       </c>
       <c r="J20">
-        <v>7.583386912402417</v>
+        <v>8.010122615914703</v>
       </c>
       <c r="K20">
-        <v>11.77184989694777</v>
+        <v>11.50014466634209</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.10889841451856</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.91966432489121</v>
       </c>
       <c r="N20">
-        <v>7.766334668033132</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.79686094122884</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.771234409369693</v>
       </c>
       <c r="Q20">
-        <v>12.14528590541741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.79677823433151</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.85049732999166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.25927442246543</v>
+        <v>27.25097199558328</v>
       </c>
       <c r="C21">
-        <v>18.74381530363005</v>
+        <v>18.99559205675545</v>
       </c>
       <c r="D21">
-        <v>6.055133030619288</v>
+        <v>6.23700499364819</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.87111485242277</v>
+        <v>16.08883770461762</v>
       </c>
       <c r="G21">
-        <v>19.72530736294981</v>
+        <v>20.68388031736768</v>
       </c>
       <c r="H21">
-        <v>1.709638910548718</v>
+        <v>1.695518236333384</v>
       </c>
       <c r="I21">
-        <v>3.141797619095366</v>
+        <v>3.130502377911923</v>
       </c>
       <c r="J21">
-        <v>7.585205896398435</v>
+        <v>7.329467587217986</v>
       </c>
       <c r="K21">
-        <v>11.54859862490294</v>
+        <v>11.16016654710452</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.864034530455408</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.76227043571097</v>
       </c>
       <c r="N21">
-        <v>8.049597303425974</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.62760742853188</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.038402959808561</v>
       </c>
       <c r="Q21">
-        <v>12.31795757001067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.62752457979203</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.74185431306155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.20814069821472</v>
+        <v>28.19239211660831</v>
       </c>
       <c r="C22">
-        <v>19.15178396119727</v>
+        <v>19.40715907632599</v>
       </c>
       <c r="D22">
-        <v>6.216825075326326</v>
+        <v>6.455055328931778</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.23176532259831</v>
+        <v>16.19568946217768</v>
       </c>
       <c r="G22">
-        <v>20.20007767412534</v>
+        <v>22.42130442125461</v>
       </c>
       <c r="H22">
-        <v>1.84611671720277</v>
+        <v>1.819289852609435</v>
       </c>
       <c r="I22">
-        <v>3.251238797337495</v>
+        <v>3.222991808267079</v>
       </c>
       <c r="J22">
-        <v>7.58273742630727</v>
+        <v>6.929147021164439</v>
       </c>
       <c r="K22">
-        <v>11.39286832679886</v>
+        <v>10.9234790760859</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.704519652505143</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.656815175792326</v>
       </c>
       <c r="N22">
-        <v>8.170927345049881</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.10222662202073</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.149939148273583</v>
       </c>
       <c r="Q22">
-        <v>12.41923871759544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.10177951323895</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.64676534680956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.70611676497997</v>
+        <v>27.69463718735836</v>
       </c>
       <c r="C23">
-        <v>18.90485697717334</v>
+        <v>19.16815788404146</v>
       </c>
       <c r="D23">
-        <v>6.125920592247711</v>
+        <v>6.327059403608263</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.06427218240751</v>
+        <v>16.19624485234544</v>
       </c>
       <c r="G23">
-        <v>19.99141765937518</v>
+        <v>21.33459659729915</v>
       </c>
       <c r="H23">
-        <v>1.774164050939792</v>
+        <v>1.754627584441208</v>
       </c>
       <c r="I23">
-        <v>3.18890741310769</v>
+        <v>3.168990956613128</v>
       </c>
       <c r="J23">
-        <v>7.591529458177282</v>
+        <v>7.197714918799049</v>
       </c>
       <c r="K23">
-        <v>11.49138531637965</v>
+        <v>11.07280412129218</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.80130460227519</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.736300061215347</v>
       </c>
       <c r="N23">
-        <v>8.106869241486494</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.85064055990704</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.09147663360676</v>
       </c>
       <c r="Q23">
-        <v>12.38416039325717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.85042576736488</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.74123971394425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.71548354034589</v>
+        <v>25.7190566612454</v>
       </c>
       <c r="C24">
-        <v>17.9943780592416</v>
+        <v>18.23082167470683</v>
       </c>
       <c r="D24">
-        <v>5.777851390032849</v>
+        <v>5.87586954194165</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.39963740995228</v>
+        <v>15.98319569121301</v>
       </c>
       <c r="G24">
-        <v>19.14805386484581</v>
+        <v>18.29051572812733</v>
       </c>
       <c r="H24">
-        <v>1.627626881473828</v>
+        <v>1.62143659238515</v>
       </c>
       <c r="I24">
-        <v>2.955412445314606</v>
+        <v>2.966825786773166</v>
       </c>
       <c r="J24">
-        <v>7.621187344092156</v>
+        <v>8.047358120056748</v>
       </c>
       <c r="K24">
-        <v>11.84978476889063</v>
+        <v>11.56623226087285</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.15283579612926</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.978368993127178</v>
       </c>
       <c r="N24">
-        <v>7.859368697547316</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.86014617111706</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.864261673014429</v>
       </c>
       <c r="Q24">
-        <v>12.23885472923948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.86007195768814</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.93688299572879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.37729662504701</v>
+        <v>23.39375751640621</v>
       </c>
       <c r="C25">
-        <v>16.96291962459205</v>
+        <v>17.04616569951863</v>
       </c>
       <c r="D25">
-        <v>5.377152491160341</v>
+        <v>5.440729364439037</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15.70860593676848</v>
+        <v>15.40834803046289</v>
       </c>
       <c r="G25">
-        <v>18.28512419202943</v>
+        <v>17.30978216507993</v>
       </c>
       <c r="H25">
-        <v>1.948695532117491</v>
+        <v>1.920603678817289</v>
       </c>
       <c r="I25">
-        <v>2.696196719972081</v>
+        <v>2.734218925178485</v>
       </c>
       <c r="J25">
-        <v>7.671691737186567</v>
+        <v>8.15940575464646</v>
       </c>
       <c r="K25">
-        <v>12.25969191470811</v>
+        <v>12.00230248980013</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.49577291807353</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.206462046220988</v>
       </c>
       <c r="N25">
-        <v>7.584350748324967</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.71289652645085</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.607272133288838</v>
       </c>
       <c r="Q25">
-        <v>12.1226031410601</v>
+        <v>13.71176003546231</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.90171712547068</v>
       </c>
     </row>
   </sheetData>
